--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -209,12 +209,10 @@
     <t>伤害间隔，没用到</t>
   </si>
   <si>
-    <t>命中时间，
-激活动作开始多少时间会对敌人造成伤害</t>
-  </si>
-  <si>
-    <t>附加效果，这里面填buffId
-如流血效果</t>
+    <t>命中时间，激活动作开始多少时间会对敌人造成伤害</t>
+  </si>
+  <si>
+    <t>附加效果，这里面填buffId如流血效果</t>
   </si>
   <si>
     <t>物理攻击</t>
@@ -223,8 +221,7 @@
     <t>法术攻击</t>
   </si>
   <si>
-    <t>物攻加成
-百分比</t>
+    <t>物攻加成(百分比)</t>
   </si>
   <si>
     <t>法攻加成</t>
@@ -1289,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1317,9 +1314,11 @@
     <col min="22" max="22" width="10.775" style="3" customWidth="1"/>
     <col min="23" max="24" width="24.4333333333333" style="3" customWidth="1"/>
     <col min="25" max="25" width="48.5833333333333" style="3" customWidth="1"/>
-    <col min="26" max="26" width="25.7583333333333" style="3" customWidth="1"/>
+    <col min="26" max="26" width="44.5583333333333" style="3" customWidth="1"/>
     <col min="27" max="27" width="10.775" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="3"/>
+    <col min="28" max="28" width="9" style="3"/>
+    <col min="29" max="29" width="16.1916666666667" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
@@ -1600,7 +1599,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:30">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
@@ -1686,7 +1685,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:30">
       <c r="A5" s="3">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1769,7 +1768,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:30">
       <c r="A6" s="3">
-        <v>3</v>
+        <v>1003</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -1855,7 +1854,7 @@
     </row>
     <row r="7" customHeight="1" spans="1:30">
       <c r="A7" s="3">
-        <v>101</v>
+        <v>2001</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -1941,7 +1940,7 @@
     </row>
     <row r="8" customHeight="1" spans="1:30">
       <c r="A8" s="3">
-        <v>102</v>
+        <v>2002</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -2030,13 +2029,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:30">
       <c r="A9" s="3">
-        <v>1001</v>
+        <v>3001</v>
       </c>
       <c r="B9" s="3">
         <v>1001</v>
       </c>
       <c r="C9" s="3">
-        <v>101</v>
+        <v>3001</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>95</v>
@@ -2060,7 +2059,7 @@
         <v>70</v>
       </c>
       <c r="K9" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
         <v>3000</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -287,7 +287,7 @@
     <t>法师的基础法术，无消耗</t>
   </si>
   <si>
-    <t>Prefabs/UI/Icon/skill_icon_001_2001</t>
+    <t>Texture/skill/skill_icon_2001</t>
   </si>
   <si>
     <t>[0]</t>
@@ -299,7 +299,7 @@
     <t>对单体目标造成法术伤害</t>
   </si>
   <si>
-    <t>Prefabs/UI/Icon/skill_icon_001_2002</t>
+    <t>Texture/skill/skill_icon_2002</t>
   </si>
   <si>
     <t>Intonate</t>
@@ -1286,8 +1286,8 @@
   <sheetPr/>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
   <si>
     <t>ID</t>
   </si>
@@ -104,6 +104,9 @@
     <t>HitDelay</t>
   </si>
   <si>
+    <t>PostRockTime</t>
+  </si>
+  <si>
     <t>BUFF</t>
   </si>
   <si>
@@ -206,12 +209,15 @@
     <t>激活状态动画持续的时间</t>
   </si>
   <si>
-    <t>伤害间隔，没用到</t>
+    <t>伤害间隔，没用到.可以用火焰雨，暴风雪之类的持续技能</t>
   </si>
   <si>
     <t>命中时间，激活动作开始多少时间会对敌人造成伤害</t>
   </si>
   <si>
+    <t>技能的后摇时间，我这里用作缓冲</t>
+  </si>
+  <si>
     <t>附加效果，这里面填buffId如流血效果</t>
   </si>
   <si>
@@ -318,6 +324,39 @@
   </si>
   <si>
     <t>野怪通用近战</t>
+  </si>
+  <si>
+    <t>给你一个右锤子</t>
+  </si>
+  <si>
+    <t>牛头战士的专属普通攻击1</t>
+  </si>
+  <si>
+    <t>attack_01</t>
+  </si>
+  <si>
+    <t>[0.7]</t>
+  </si>
+  <si>
+    <t>给你一个左锤子</t>
+  </si>
+  <si>
+    <t>牛头战士的专属普通攻击2</t>
+  </si>
+  <si>
+    <t>attack_02</t>
+  </si>
+  <si>
+    <t>[0.6]</t>
+  </si>
+  <si>
+    <t>给你两个锤子</t>
+  </si>
+  <si>
+    <t>牛头战士的专属普通攻击3</t>
+  </si>
+  <si>
+    <t>attack_03</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1314,14 +1353,14 @@
     <col min="22" max="22" width="10.775" style="3" customWidth="1"/>
     <col min="23" max="24" width="24.4333333333333" style="3" customWidth="1"/>
     <col min="25" max="25" width="48.5833333333333" style="3" customWidth="1"/>
-    <col min="26" max="26" width="44.5583333333333" style="3" customWidth="1"/>
-    <col min="27" max="27" width="10.775" style="3" customWidth="1"/>
-    <col min="28" max="28" width="9" style="3"/>
-    <col min="29" max="29" width="16.1916666666667" style="3" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="3"/>
+    <col min="26" max="27" width="44.5583333333333" style="3" customWidth="1"/>
+    <col min="28" max="28" width="10.775" style="3" customWidth="1"/>
+    <col min="29" max="29" width="9" style="3"/>
+    <col min="30" max="30" width="16.1916666666667" style="3" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,192 +1451,201 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:30">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:31">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="R2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="T2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="59" customHeight="1" spans="1:30">
+    <row r="3" s="2" customFormat="1" ht="59" customHeight="1" spans="1:31">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA3" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="AA3" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="AB3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AD3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="AD3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" customHeight="1" spans="1:30">
+    <row r="4" customHeight="1" spans="1:31">
       <c r="A4" s="3">
         <v>1001</v>
       </c>
@@ -1608,10 +1656,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -1620,13 +1668,13 @@
         <v>3</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4" s="3">
         <v>1.5</v>
@@ -1641,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="3">
         <v>0</v>
@@ -1656,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V4" s="3">
         <v>0</v>
@@ -1668,22 +1716,25 @@
         <v>0</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
+        <v>76</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.2</v>
       </c>
       <c r="AB4" s="3">
         <v>0</v>
       </c>
       <c r="AC4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:30">
+    <row r="5" customHeight="1" spans="1:31">
       <c r="A5" s="3">
         <v>1002</v>
       </c>
@@ -1694,10 +1745,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1706,13 +1757,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K5" s="3">
         <v>5</v>
@@ -1727,10 +1778,10 @@
         <v>20</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q5" s="3">
         <v>5</v>
@@ -1751,22 +1802,25 @@
         <v>0</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="3">
+        <v>76</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AB5" s="3">
         <v>150</v>
       </c>
-      <c r="AB5" s="3">
-        <v>0</v>
-      </c>
       <c r="AC5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:30">
+    <row r="6" customHeight="1" spans="1:31">
       <c r="A6" s="3">
         <v>1003</v>
       </c>
@@ -1777,25 +1831,25 @@
         <v>1003</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K6" s="3">
         <v>3.5</v>
@@ -1810,10 +1864,10 @@
         <v>25</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q6" s="3">
         <v>10</v>
@@ -1834,25 +1888,28 @@
         <v>0</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA6" s="3">
+        <v>84</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" s="3">
         <v>100</v>
       </c>
-      <c r="AB6" s="3">
-        <v>0</v>
-      </c>
       <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
         <v>0.8</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AE6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:30">
+    <row r="7" customHeight="1" spans="1:31">
       <c r="A7" s="3">
         <v>2001</v>
       </c>
@@ -1863,10 +1920,10 @@
         <v>2001</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1875,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K7" s="3">
         <v>1.5</v>
@@ -1896,10 +1953,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="3">
         <v>0</v>
@@ -1911,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V7" s="3">
         <v>0</v>
@@ -1923,22 +1980,25 @@
         <v>0</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.2</v>
       </c>
       <c r="AB7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3">
         <v>200</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AD7" s="3">
         <v>1.2</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AE7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:30">
+    <row r="8" customHeight="1" spans="1:31">
       <c r="A8" s="3">
         <v>2002</v>
       </c>
@@ -1949,10 +2009,10 @@
         <v>2002</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1961,13 +2021,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K8" s="3">
         <v>5</v>
@@ -1982,10 +2042,10 @@
         <v>35</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="3">
         <v>5</v>
@@ -1994,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T8" s="3">
         <v>15000</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V8" s="3">
         <v>4000</v>
@@ -2012,36 +2072,39 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0.2</v>
       </c>
       <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
         <v>250</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1.5</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:30">
+    <row r="9" customHeight="1" spans="1:31">
       <c r="A9" s="3">
-        <v>3001</v>
+        <v>10001</v>
       </c>
       <c r="B9" s="3">
-        <v>1001</v>
+        <v>-1</v>
       </c>
       <c r="C9" s="3">
-        <v>3001</v>
+        <v>10001</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -2050,13 +2113,13 @@
         <v>1</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K9" s="3">
         <v>1</v>
@@ -2071,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="3">
         <v>0</v>
@@ -2086,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="V9" s="3">
         <v>0</v>
@@ -2098,18 +2161,288 @@
         <v>0</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA9" s="3">
+        <v>76</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="AB9" s="3">
         <v>50</v>
       </c>
-      <c r="AB9" s="3">
-        <v>0</v>
-      </c>
       <c r="AC9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:31">
+      <c r="A10" s="3">
+        <v>30001</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C10" s="3">
+        <v>30001</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="3">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:31">
+      <c r="A11" s="3">
+        <v>30002</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30002</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="3">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+      <c r="T11" s="3">
+        <v>0</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V11" s="3">
+        <v>0</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:31">
+      <c r="A12" s="3">
+        <v>30003</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1003</v>
+      </c>
+      <c r="C12" s="3">
+        <v>30003</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="3">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
         <v>0</v>
       </c>
     </row>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -1326,7 +1326,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2122,7 +2122,7 @@
         <v>72</v>
       </c>
       <c r="K9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9" s="3">
         <v>3000</v>
@@ -2164,7 +2164,7 @@
         <v>76</v>
       </c>
       <c r="Z9" s="3">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AB9" s="3">
         <v>50</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -284,40 +284,40 @@
     <t>[0.3,0.6,0.9]</t>
   </si>
   <si>
+    <t>木棍戳戳</t>
+  </si>
+  <si>
+    <t>法师的基础法术，无消耗</t>
+  </si>
+  <si>
+    <t>Texture/skill/skill_icon_2001</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>火球术</t>
+  </si>
+  <si>
+    <t>对单体目标造成法术伤害</t>
+  </si>
+  <si>
+    <t>Texture/skill/skill_icon_2002</t>
+  </si>
+  <si>
+    <t>Intonate</t>
+  </si>
+  <si>
+    <t>Effects/Fly/FireBall</t>
+  </si>
+  <si>
+    <t>Effects/Hits/Explosion</t>
+  </si>
+  <si>
+    <t>[0.2]</t>
+  </si>
+  <si>
     <t>[1]</t>
-  </si>
-  <si>
-    <t>木棍戳戳</t>
-  </si>
-  <si>
-    <t>法师的基础法术，无消耗</t>
-  </si>
-  <si>
-    <t>Texture/skill/skill_icon_2001</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>火球术</t>
-  </si>
-  <si>
-    <t>对单体目标造成法术伤害</t>
-  </si>
-  <si>
-    <t>Texture/skill/skill_icon_2002</t>
-  </si>
-  <si>
-    <t>Intonate</t>
-  </si>
-  <si>
-    <t>Effects/Fly/FireBall</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Explosion</t>
-  </si>
-  <si>
-    <t>[0.2]</t>
   </si>
   <si>
     <t>野怪近战[物理]</t>
@@ -1325,8 +1325,8 @@
   <sheetPr/>
   <dimension ref="A1:AE12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1893,9 +1893,7 @@
       <c r="Z6" s="3">
         <v>0.2</v>
       </c>
-      <c r="AA6" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="AA6" s="3"/>
       <c r="AB6" s="3">
         <v>100</v>
       </c>
@@ -1920,10 +1918,10 @@
         <v>2001</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1935,7 +1933,7 @@
         <v>70</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>72</v>
@@ -1980,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z7" s="3">
         <v>0.2</v>
@@ -2009,10 +2007,10 @@
         <v>2002</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -2024,7 +2022,7 @@
         <v>79</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>72</v>
@@ -2042,7 +2040,7 @@
         <v>35</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>73</v>
@@ -2054,13 +2052,13 @@
         <v>1</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T8" s="3">
         <v>15000</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="V8" s="3">
         <v>4000</v>
@@ -2072,10 +2070,13 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Z8" s="3">
         <v>0.2</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="AB8" s="3">
         <v>0</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -318,6 +318,27 @@
   </si>
   <si>
     <t>[1]</t>
+  </si>
+  <si>
+    <t>风行术</t>
+  </si>
+  <si>
+    <t>提高目标的移动速度和闪避</t>
+  </si>
+  <si>
+    <t>Texture/skill/skill_icon_2003</t>
+  </si>
+  <si>
+    <t>VictoryStart</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>一段时间内免疫全部伤害</t>
+  </si>
+  <si>
+    <t>Texture/skill/skill_icon_2004</t>
   </si>
   <si>
     <t>野怪近战[物理]</t>
@@ -987,12 +1008,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1323,41 +1347,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="11.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.2166666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.425" style="3" customWidth="1"/>
-    <col min="6" max="6" width="27" style="3" customWidth="1"/>
-    <col min="7" max="7" width="11.4333333333333" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.8583333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="34.125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="38.15" style="3" customWidth="1"/>
-    <col min="11" max="12" width="10.775" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.65" style="3" customWidth="1"/>
-    <col min="14" max="14" width="10.775" style="3" customWidth="1"/>
-    <col min="15" max="15" width="23.475" style="3" customWidth="1"/>
-    <col min="16" max="16" width="22.925" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10.775" style="3" customWidth="1"/>
-    <col min="18" max="19" width="18.075" style="3" customWidth="1"/>
-    <col min="20" max="20" width="14.8583333333333" style="3" customWidth="1"/>
-    <col min="21" max="21" width="21.575" style="3" customWidth="1"/>
-    <col min="22" max="22" width="10.775" style="3" customWidth="1"/>
-    <col min="23" max="24" width="24.4333333333333" style="3" customWidth="1"/>
-    <col min="25" max="25" width="48.5833333333333" style="3" customWidth="1"/>
-    <col min="26" max="27" width="44.5583333333333" style="3" customWidth="1"/>
-    <col min="28" max="28" width="10.775" style="3" customWidth="1"/>
-    <col min="29" max="29" width="9" style="3"/>
-    <col min="30" max="30" width="16.1916666666667" style="3" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.2166666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="38.425" style="4" customWidth="1"/>
+    <col min="6" max="6" width="27" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.4333333333333" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.8583333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="34.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="38.15" style="4" customWidth="1"/>
+    <col min="11" max="12" width="10.775" style="4" customWidth="1"/>
+    <col min="13" max="13" width="15.65" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.775" style="4" customWidth="1"/>
+    <col min="15" max="15" width="23.475" style="4" customWidth="1"/>
+    <col min="16" max="16" width="22.925" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.775" style="4" customWidth="1"/>
+    <col min="18" max="19" width="18.075" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.8583333333333" style="4" customWidth="1"/>
+    <col min="21" max="21" width="21.575" style="4" customWidth="1"/>
+    <col min="22" max="22" width="10.775" style="4" customWidth="1"/>
+    <col min="23" max="24" width="24.4333333333333" style="4" customWidth="1"/>
+    <col min="25" max="25" width="48.5833333333333" style="4" customWidth="1"/>
+    <col min="26" max="27" width="44.5583333333333" style="4" customWidth="1"/>
+    <col min="28" max="28" width="10.775" style="4" customWidth="1"/>
+    <col min="29" max="29" width="9" style="4"/>
+    <col min="30" max="30" width="16.1916666666667" style="4" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:31">
@@ -1578,7 +1602,7 @@
       <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>46</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -1617,19 +1641,19 @@
       <c r="V3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>59</v>
       </c>
       <c r="X3" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Y3" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="Z3" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AA3" s="5" t="s">
         <v>63</v>
       </c>
       <c r="AB3" s="2" t="s">
@@ -1638,7 +1662,7 @@
       <c r="AC3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AD3" s="5" t="s">
         <v>66</v>
       </c>
       <c r="AE3" s="2" t="s">
@@ -1646,460 +1670,459 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:31">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>1001</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>1001</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>1.5</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>3500</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3" t="s">
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
         <v>0.85</v>
       </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3" t="s">
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="4">
         <v>0.2</v>
       </c>
-      <c r="AB4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="3">
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:31">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>1002</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>1002</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <v>5</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <v>3500</v>
       </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
         <v>20</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="4">
         <v>5</v>
       </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3" t="s">
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="4">
         <v>0.2</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="4">
         <v>150</v>
       </c>
-      <c r="AC5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="3">
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:31">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>1003</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>1003</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>3.5</v>
       </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
         <v>25</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>10</v>
       </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
         <v>4000</v>
       </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3" t="s">
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="4">
         <v>0.2</v>
       </c>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3">
+      <c r="AB6" s="4">
         <v>100</v>
       </c>
-      <c r="AC6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="3">
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
         <v>0.8</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:31">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2001</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
         <v>2001</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <v>1.5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <v>3500</v>
       </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5" t="s">
+      <c r="Q7" s="4">
+        <v>0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
+      <c r="V7" s="4">
+        <v>0</v>
+      </c>
+      <c r="W7" s="4">
         <v>0.85</v>
       </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3" t="s">
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="4">
         <v>0.2</v>
       </c>
-      <c r="AB7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="3">
+      <c r="AB7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="4">
         <v>200</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="4">
         <v>1.2</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:31">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>2002</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
         <v>2002</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <v>5</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>20000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <v>1.5</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="4">
         <v>35</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="4">
         <v>5</v>
       </c>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
-      <c r="S8" s="3" t="s">
+      <c r="R8" s="4">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="4">
         <v>15000</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="U8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="4">
         <v>4000</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3" t="s">
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="4">
         <v>0.2</v>
       </c>
-      <c r="AA8" s="3" t="s">
+      <c r="AA8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
         <v>250</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="4">
         <v>1.5</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:31">
+    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:31">
       <c r="A9" s="3">
-        <v>10001</v>
+        <v>2003</v>
       </c>
       <c r="B9" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>10001</v>
+        <v>2003</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>97</v>
@@ -2111,37 +2134,37 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>72</v>
       </c>
       <c r="K9" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L9" s="3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="O9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R9" s="3">
         <v>0</v>
@@ -2156,81 +2179,81 @@
         <v>0</v>
       </c>
       <c r="W9" s="3">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="X9" s="3">
         <v>0</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="Z9" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="3">
         <v>0</v>
       </c>
       <c r="AD9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:31">
+    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:31">
       <c r="A10" s="3">
-        <v>30001</v>
+        <v>2004</v>
       </c>
       <c r="B10" s="3">
-        <v>1003</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>30001</v>
+        <v>2004</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="3">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="N10" s="3">
+        <v>35</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="3">
-        <v>5</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R10" s="3">
         <v>0</v>
@@ -2245,205 +2268,383 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>0</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="Z10" s="3">
-        <v>0.5</v>
+        <v>0.2</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="3">
         <v>0</v>
       </c>
       <c r="AD10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:31">
-      <c r="A11" s="3">
-        <v>30002</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1003</v>
-      </c>
-      <c r="C11" s="3">
-        <v>30002</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="A11" s="4">
+        <v>10001</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>10001</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="E11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="3">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3">
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="4">
         <v>3000</v>
       </c>
-      <c r="M11" s="3">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>0</v>
-      </c>
-      <c r="R11" s="3">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3" t="s">
+      <c r="P11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="V11" s="3">
-        <v>0</v>
-      </c>
-      <c r="W11" s="3">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z11" s="3">
+      <c r="V11" s="4">
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z11" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB11" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="3">
+      <c r="AB11" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:31">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
+        <v>30001</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30001</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="4">
+        <v>5</v>
+      </c>
+      <c r="L12" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>1</v>
+      </c>
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:31">
+      <c r="A13" s="4">
+        <v>30002</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C13" s="4">
+        <v>30002</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="4">
+        <v>5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V13" s="4">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:31">
+      <c r="A14" s="4">
         <v>30003</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B14" s="4">
         <v>1003</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C14" s="4">
         <v>30003</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="D14" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K14" s="4">
         <v>5</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L14" s="4">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="4">
+        <v>0</v>
+      </c>
+      <c r="W14" s="4">
+        <v>1</v>
+      </c>
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z12" s="3">
+      <c r="Z14" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB14" s="4">
         <v>200</v>
       </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="3">
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -1349,8 +1349,8 @@
   <sheetPr/>
   <dimension ref="A1:AE14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2366,7 +2366,7 @@
         <v>76</v>
       </c>
       <c r="Z11" s="4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AB11" s="4">
         <v>50</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="124">
   <si>
     <t>ID</t>
   </si>
@@ -293,7 +293,7 @@
     <t>Texture/skill/skill_icon_2001</t>
   </si>
   <si>
-    <t>[0]</t>
+    <t>[0.6]</t>
   </si>
   <si>
     <t>火球术</t>
@@ -317,9 +317,6 @@
     <t>[0.2]</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
     <t>风行术</t>
   </si>
   <si>
@@ -341,21 +338,54 @@
     <t>Texture/skill/skill_icon_2004</t>
   </si>
   <si>
+    <t>右横扫</t>
+  </si>
+  <si>
+    <t>俏皮女枪的专属普通攻击1</t>
+  </si>
+  <si>
+    <t>attack_01</t>
+  </si>
+  <si>
+    <t>[0.3]</t>
+  </si>
+  <si>
+    <t>小旋转</t>
+  </si>
+  <si>
+    <t>俏皮女枪的专属普通攻击2</t>
+  </si>
+  <si>
+    <t>attack_02</t>
+  </si>
+  <si>
+    <t>左右中</t>
+  </si>
+  <si>
+    <t>俏皮女枪的专属普通攻击3</t>
+  </si>
+  <si>
+    <t>attack_03</t>
+  </si>
+  <si>
+    <t>[0.18,0.6,1.2]</t>
+  </si>
+  <si>
     <t>野怪近战[物理]</t>
   </si>
   <si>
     <t>野怪通用近战</t>
   </si>
   <si>
+    <t>[0.2,0.6]</t>
+  </si>
+  <si>
     <t>给你一个右锤子</t>
   </si>
   <si>
     <t>牛头战士的专属普通攻击1</t>
   </si>
   <si>
-    <t>attack_01</t>
-  </si>
-  <si>
     <t>[0.7]</t>
   </si>
   <si>
@@ -365,19 +395,10 @@
     <t>牛头战士的专属普通攻击2</t>
   </si>
   <si>
-    <t>attack_02</t>
-  </si>
-  <si>
-    <t>[0.6]</t>
-  </si>
-  <si>
     <t>给你两个锤子</t>
   </si>
   <si>
     <t>牛头战士的专属普通攻击3</t>
-  </si>
-  <si>
-    <t>attack_03</t>
   </si>
 </sst>
 </file>
@@ -1347,10 +1368,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z22" sqref="Z22"/>
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1995,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="4">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="X7" s="4">
         <v>0</v>
@@ -2098,9 +2119,6 @@
       <c r="Z8" s="4">
         <v>0.2</v>
       </c>
-      <c r="AA8" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="AB8" s="4">
         <v>0</v>
       </c>
@@ -2125,10 +2143,10 @@
         <v>2003</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -2140,7 +2158,7 @@
         <v>79</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>72</v>
@@ -2158,7 +2176,7 @@
         <v>35</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>73</v>
@@ -2186,9 +2204,6 @@
       </c>
       <c r="Z9" s="3">
         <v>0.2</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
@@ -2214,10 +2229,10 @@
         <v>2004</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -2229,7 +2244,7 @@
         <v>79</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>73</v>
@@ -2247,7 +2262,7 @@
         <v>35</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>73</v>
@@ -2276,9 +2291,6 @@
       <c r="Z10" s="3">
         <v>0.2</v>
       </c>
-      <c r="AA10" s="3">
-        <v>0</v>
-      </c>
       <c r="AB10" s="3">
         <v>0</v>
       </c>
@@ -2292,21 +2304,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:31">
+    <row r="11" customFormat="1" customHeight="1" spans="1:31">
       <c r="A11" s="4">
-        <v>10001</v>
+        <v>4001</v>
       </c>
       <c r="B11" s="4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>10001</v>
+        <v>4001</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
@@ -2324,7 +2336,7 @@
         <v>72</v>
       </c>
       <c r="K11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
         <v>3000</v>
@@ -2339,7 +2351,7 @@
         <v>73</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="4">
         <v>0</v>
@@ -2347,6 +2359,7 @@
       <c r="R11" s="4">
         <v>0</v>
       </c>
+      <c r="S11" s="4"/>
       <c r="T11" s="4">
         <v>0</v>
       </c>
@@ -2357,19 +2370,20 @@
         <v>0</v>
       </c>
       <c r="W11" s="4">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="X11" s="4">
         <v>0</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z11" s="4">
-        <v>0.7</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4"/>
       <c r="AB11" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC11" s="4">
         <v>0</v>
@@ -2381,21 +2395,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:31">
+    <row r="12" customFormat="1" customHeight="1" spans="1:31">
       <c r="A12" s="4">
-        <v>30001</v>
+        <v>4002</v>
       </c>
       <c r="B12" s="4">
-        <v>1003</v>
+        <v>4</v>
       </c>
       <c r="C12" s="4">
-        <v>30001</v>
+        <v>4002</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
@@ -2413,7 +2427,7 @@
         <v>72</v>
       </c>
       <c r="K12" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
         <v>3000</v>
@@ -2428,7 +2442,7 @@
         <v>73</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="4">
         <v>0</v>
@@ -2436,6 +2450,7 @@
       <c r="R12" s="4">
         <v>0</v>
       </c>
+      <c r="S12" s="4"/>
       <c r="T12" s="4">
         <v>0</v>
       </c>
@@ -2443,20 +2458,21 @@
         <v>75</v>
       </c>
       <c r="V12" s="4">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="W12" s="4">
-        <v>1</v>
+        <v>1.06</v>
       </c>
       <c r="X12" s="4">
         <v>0</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z12" s="4">
-        <v>0.5</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4"/>
       <c r="AB12" s="4">
         <v>100</v>
       </c>
@@ -2470,15 +2486,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:31">
+    <row r="13" customFormat="1" customHeight="1" spans="1:31">
       <c r="A13" s="4">
-        <v>30002</v>
+        <v>4003</v>
       </c>
       <c r="B13" s="4">
-        <v>1003</v>
+        <v>4</v>
       </c>
       <c r="C13" s="4">
-        <v>30002</v>
+        <v>4003</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>110</v>
@@ -2502,7 +2518,7 @@
         <v>72</v>
       </c>
       <c r="K13" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4">
         <v>3000</v>
@@ -2525,6 +2541,7 @@
       <c r="R13" s="4">
         <v>0</v>
       </c>
+      <c r="S13" s="4"/>
       <c r="T13" s="4">
         <v>0</v>
       </c>
@@ -2535,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X13" s="4">
         <v>0</v>
@@ -2543,11 +2560,12 @@
       <c r="Y13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="Z13" s="4">
-        <v>0.5</v>
-      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4"/>
       <c r="AB13" s="4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC13" s="4">
         <v>0</v>
@@ -2561,13 +2579,13 @@
     </row>
     <row r="14" customHeight="1" spans="1:31">
       <c r="A14" s="4">
-        <v>30003</v>
+        <v>10001</v>
       </c>
       <c r="B14" s="4">
-        <v>1003</v>
+        <v>-1</v>
       </c>
       <c r="C14" s="4">
-        <v>30003</v>
+        <v>10001</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>114</v>
@@ -2591,7 +2609,7 @@
         <v>72</v>
       </c>
       <c r="K14" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L14" s="4">
         <v>3000</v>
@@ -2606,7 +2624,7 @@
         <v>73</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -2624,27 +2642,294 @@
         <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="X14" s="4">
         <v>0</v>
       </c>
       <c r="Y14" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>50</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:31">
+      <c r="A15" s="4">
+        <v>30001</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C15" s="4">
+        <v>30001</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>0</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V15" s="4">
+        <v>0</v>
+      </c>
+      <c r="W15" s="4">
+        <v>1</v>
+      </c>
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:31">
+      <c r="A16" s="4">
+        <v>30002</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C16" s="4">
+        <v>30002</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K16" s="4">
+        <v>5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="Z14" s="4">
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16" s="4">
+        <v>0</v>
+      </c>
+      <c r="W16" s="4">
+        <v>1</v>
+      </c>
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB14" s="4">
+      <c r="AB16" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:31">
+      <c r="A17" s="4">
+        <v>30003</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C17" s="4">
+        <v>30003</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="4">
+        <v>5</v>
+      </c>
+      <c r="L17" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>0</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>1</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AB17" s="4">
         <v>200</v>
       </c>
-      <c r="AC14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="4">
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -266,7 +266,7 @@
     <t>对单个目标照成物理攻击，添加流血效果</t>
   </si>
   <si>
-    <t>技能</t>
+    <t>主动技能</t>
   </si>
   <si>
     <t>SpellA</t>
@@ -1370,8 +1370,8 @@
   <sheetPr/>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1764,7 +1764,7 @@
         <v>76</v>
       </c>
       <c r="Z4" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="4">
         <v>0</v>
@@ -1850,7 +1850,7 @@
         <v>76</v>
       </c>
       <c r="Z5" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="4">
         <v>150</v>
@@ -1936,7 +1936,7 @@
         <v>84</v>
       </c>
       <c r="Z6" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="4">
         <v>100</v>
@@ -1983,7 +1983,7 @@
         <v>72</v>
       </c>
       <c r="K7" s="4">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="L7" s="4">
         <v>3500</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="X7" s="4">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>88</v>
       </c>
       <c r="Z7" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB7" s="4">
         <v>0</v>
@@ -2117,7 +2117,7 @@
         <v>95</v>
       </c>
       <c r="Z8" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB8" s="4">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB9" s="3">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="3">
         <v>0</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -369,6 +369,18 @@
   </si>
   <si>
     <t>[0.18,0.6,1.2]</t>
+  </si>
+  <si>
+    <t>龙王破</t>
+  </si>
+  <si>
+    <t>长枪的极意</t>
+  </si>
+  <si>
+    <t>SkillG</t>
+  </si>
+  <si>
+    <t>[0.38,0.54,0.66,0.81,0.93,1.18]</t>
   </si>
   <si>
     <t>野怪近战[物理]</t>
@@ -1368,10 +1380,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="X20" sqref="X20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2577,15 +2589,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:31">
+    <row r="14" customFormat="1" customHeight="1" spans="1:31">
       <c r="A14" s="4">
-        <v>10001</v>
+        <v>4004</v>
       </c>
       <c r="B14" s="4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="4">
-        <v>10001</v>
+        <v>4004</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>114</v>
@@ -2600,16 +2612,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>71</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L14" s="4">
         <v>3000</v>
@@ -2624,7 +2636,7 @@
         <v>73</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="4">
         <v>0</v>
@@ -2632,6 +2644,7 @@
       <c r="R14" s="4">
         <v>0</v>
       </c>
+      <c r="S14" s="4"/>
       <c r="T14" s="4">
         <v>0</v>
       </c>
@@ -2639,22 +2652,23 @@
         <v>75</v>
       </c>
       <c r="V14" s="4">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="W14" s="4">
-        <v>0.85</v>
+        <v>1.8</v>
       </c>
       <c r="X14" s="4">
         <v>0</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z14" s="4">
-        <v>0.7</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4"/>
       <c r="AB14" s="4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC14" s="4">
         <v>0</v>
@@ -2668,19 +2682,19 @@
     </row>
     <row r="15" customHeight="1" spans="1:31">
       <c r="A15" s="4">
-        <v>30001</v>
+        <v>10001</v>
       </c>
       <c r="B15" s="4">
-        <v>1003</v>
+        <v>-1</v>
       </c>
       <c r="C15" s="4">
-        <v>30001</v>
+        <v>10001</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
@@ -2698,7 +2712,7 @@
         <v>72</v>
       </c>
       <c r="K15" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L15" s="4">
         <v>3000</v>
@@ -2713,7 +2727,7 @@
         <v>73</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="4">
         <v>0</v>
@@ -2731,19 +2745,19 @@
         <v>0</v>
       </c>
       <c r="W15" s="4">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="X15" s="4">
         <v>0</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AB15" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AC15" s="4">
         <v>0</v>
@@ -2757,19 +2771,19 @@
     </row>
     <row r="16" customHeight="1" spans="1:31">
       <c r="A16" s="4">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B16" s="4">
         <v>1003</v>
       </c>
       <c r="C16" s="4">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2802,7 +2816,7 @@
         <v>73</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2826,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="Z16" s="4">
         <v>0.5</v>
@@ -2846,19 +2860,19 @@
     </row>
     <row r="17" customHeight="1" spans="1:31">
       <c r="A17" s="4">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B17" s="4">
         <v>1003</v>
       </c>
       <c r="C17" s="4">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -2891,7 +2905,7 @@
         <v>73</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
@@ -2915,21 +2929,110 @@
         <v>0</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="Z17" s="4">
         <v>0.5</v>
       </c>
       <c r="AB17" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:31">
+      <c r="A18" s="4">
+        <v>30003</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C18" s="4">
+        <v>30003</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K18" s="4">
+        <v>5</v>
+      </c>
+      <c r="L18" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>0</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>1</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AB18" s="4">
         <v>200</v>
       </c>
-      <c r="AC17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="4">
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="24045" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -386,10 +386,19 @@
     <t>野怪近战[物理]</t>
   </si>
   <si>
-    <t>野怪通用近战</t>
-  </si>
-  <si>
-    <t>[0.2,0.6]</t>
+    <t>野怪通用近战1</t>
+  </si>
+  <si>
+    <t>[0.35]</t>
+  </si>
+  <si>
+    <t>野怪通用近战2</t>
+  </si>
+  <si>
+    <t>Attack02</t>
+  </si>
+  <si>
+    <t>[0.29]</t>
   </si>
   <si>
     <t>给你一个右锤子</t>
@@ -1380,10 +1389,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2754,7 +2763,7 @@
         <v>120</v>
       </c>
       <c r="Z15" s="4">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="AB15" s="4">
         <v>50</v>
@@ -2771,19 +2780,19 @@
     </row>
     <row r="16" customHeight="1" spans="1:31">
       <c r="A16" s="4">
-        <v>30001</v>
+        <v>10002</v>
       </c>
       <c r="B16" s="4">
-        <v>1003</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="4">
-        <v>30001</v>
+        <v>10002</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="F16" s="4">
         <v>1</v>
@@ -2801,7 +2810,7 @@
         <v>72</v>
       </c>
       <c r="K16" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L16" s="4">
         <v>3000</v>
@@ -2816,7 +2825,7 @@
         <v>73</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="Q16" s="4">
         <v>0</v>
@@ -2834,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="4">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="X16" s="4">
         <v>0</v>
@@ -2843,10 +2852,10 @@
         <v>123</v>
       </c>
       <c r="Z16" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AB16" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AC16" s="4">
         <v>0</v>
@@ -2860,13 +2869,13 @@
     </row>
     <row r="17" customHeight="1" spans="1:31">
       <c r="A17" s="4">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B17" s="4">
         <v>1003</v>
       </c>
       <c r="C17" s="4">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>124</v>
@@ -2905,7 +2914,7 @@
         <v>73</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="4">
         <v>0</v>
@@ -2929,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="Y17" s="4" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="Z17" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="4">
         <v>100</v>
@@ -2949,19 +2958,19 @@
     </row>
     <row r="18" customHeight="1" spans="1:31">
       <c r="A18" s="4">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B18" s="4">
         <v>1003</v>
       </c>
       <c r="C18" s="4">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -2994,7 +3003,7 @@
         <v>73</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="4">
         <v>0</v>
@@ -3018,21 +3027,110 @@
         <v>0</v>
       </c>
       <c r="Y18" s="4" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="Z18" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AB18" s="4">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:31">
+      <c r="A19" s="4">
+        <v>30003</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C19" s="4">
+        <v>30003</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" s="4">
+        <v>5</v>
+      </c>
+      <c r="L19" s="4">
+        <v>3000</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>0</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="V19" s="4">
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <v>1</v>
+      </c>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="4">
         <v>200</v>
       </c>
-      <c r="AC18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="4">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="4">
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -33,7 +33,7 @@
     <author>大凉龙雀</author>
   </authors>
   <commentList>
-    <comment ref="AG3" authorId="0">
+    <comment ref="AH3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH3" authorId="0">
+    <comment ref="AI3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="146">
   <si>
     <t>ID</t>
   </si>
@@ -132,6 +132,12 @@
     <t>Icon</t>
   </si>
   <si>
+    <t>IntonateArt</t>
+  </si>
+  <si>
+    <t>HitArt</t>
+  </si>
+  <si>
     <t>SpellRange</t>
   </si>
   <si>
@@ -177,9 +183,6 @@
     <t>MissileSpeed</t>
   </si>
   <si>
-    <t>HitArt</t>
-  </si>
-  <si>
     <t>Interval</t>
   </si>
   <si>
@@ -255,6 +258,12 @@
     <t>技能图标</t>
   </si>
   <si>
+    <t>蓄气自身的粒子效果</t>
+  </si>
+  <si>
+    <t>击中效果，粒子特效</t>
+  </si>
+  <si>
     <t>施法距离</t>
   </si>
   <si>
@@ -300,9 +309,6 @@
     <t>投射速度</t>
   </si>
   <si>
-    <t>击中效果，粒子特效</t>
-  </si>
-  <si>
     <t>伤害间隔</t>
   </si>
   <si>
@@ -327,7 +333,10 @@
     <t>扇形</t>
   </si>
   <si>
-    <t>Prefabs/UI/Icon/skill_icon_000</t>
+    <t>UI/Texture/skill/skill_icon_default</t>
+  </si>
+  <si>
+    <t>Combat/Effects/Hits/Holy hit</t>
   </si>
   <si>
     <t>None</t>
@@ -336,9 +345,6 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>Effects/Hits/Holy hit</t>
-  </si>
-  <si>
     <t>[0.5]</t>
   </si>
   <si>
@@ -375,9 +381,6 @@
     <t>法师的基础法术，无消耗</t>
   </si>
   <si>
-    <t>Texture/skill/skill_icon_2001</t>
-  </si>
-  <si>
     <t>[0.6]</t>
   </si>
   <si>
@@ -387,7 +390,10 @@
     <t>对单体目标造成法术伤害</t>
   </si>
   <si>
-    <t>Texture/skill/skill_icon_2002</t>
+    <t>UI/Texture/skill/skill_icon_2002</t>
+  </si>
+  <si>
+    <t>Combat/Effects/MagicCircles/Magic circle</t>
   </si>
   <si>
     <t>Intonate</t>
@@ -396,9 +402,6 @@
     <t>Effects/Fly/FireBall</t>
   </si>
   <si>
-    <t>Effects/Hits/Explosion</t>
-  </si>
-  <si>
     <t>[0]</t>
   </si>
   <si>
@@ -408,7 +411,7 @@
     <t>提高目标的移动速度和闪避</t>
   </si>
   <si>
-    <t>Texture/skill/skill_icon_2003</t>
+    <t>UI/Texture/skill/skill_icon_2003</t>
   </si>
   <si>
     <t>VictoryStart</t>
@@ -420,7 +423,7 @@
     <t>一段时间内免疫全部伤害</t>
   </si>
   <si>
-    <t>Texture/skill/skill_icon_2004</t>
+    <t>UI/Texture/skill/skill_icon_2004</t>
   </si>
   <si>
     <t>右横扫</t>
@@ -460,6 +463,9 @@
   </si>
   <si>
     <t>长枪的极意</t>
+  </si>
+  <si>
+    <t>UI/Texture/skill/skill_icon_4004</t>
   </si>
   <si>
     <t>SkillG</t>
@@ -1501,10 +1507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1523,26 +1529,27 @@
     <col min="14" max="14" width="35.975" style="5" customWidth="1"/>
     <col min="15" max="15" width="40.4333333333333" style="5" customWidth="1"/>
     <col min="16" max="16" width="34.125" style="5" customWidth="1"/>
-    <col min="17" max="19" width="10.775" style="5" customWidth="1"/>
-    <col min="20" max="20" width="9" style="5"/>
-    <col min="21" max="21" width="16.1916666666667" style="5" customWidth="1"/>
+    <col min="17" max="17" width="43.1416666666667" style="5" customWidth="1"/>
+    <col min="18" max="18" width="29.45" style="5" customWidth="1"/>
+    <col min="19" max="21" width="10.775" style="5" customWidth="1"/>
     <col min="22" max="22" width="9" style="5"/>
-    <col min="23" max="23" width="15.65" style="5" customWidth="1"/>
-    <col min="24" max="24" width="23.475" style="5" customWidth="1"/>
-    <col min="25" max="25" width="24.4333333333333" style="5" customWidth="1"/>
-    <col min="26" max="26" width="22.925" style="5" customWidth="1"/>
-    <col min="27" max="27" width="35.4333333333333" style="5" customWidth="1"/>
-    <col min="28" max="28" width="10.775" style="5" customWidth="1"/>
-    <col min="29" max="30" width="18.075" style="5" customWidth="1"/>
-    <col min="31" max="31" width="14.8583333333333" style="5" customWidth="1"/>
-    <col min="32" max="32" width="21.575" style="5" customWidth="1"/>
-    <col min="33" max="33" width="24.5666666666667" style="5" customWidth="1"/>
-    <col min="34" max="34" width="32.8166666666667" style="5" customWidth="1"/>
-    <col min="35" max="35" width="31.1833333333333" style="5" customWidth="1"/>
-    <col min="41" max="16384" width="9" style="5"/>
+    <col min="23" max="23" width="16.1916666666667" style="5" customWidth="1"/>
+    <col min="24" max="24" width="9" style="5"/>
+    <col min="25" max="25" width="15.65" style="5" customWidth="1"/>
+    <col min="26" max="26" width="23.475" style="5" customWidth="1"/>
+    <col min="27" max="27" width="24.4333333333333" style="5" customWidth="1"/>
+    <col min="28" max="28" width="22.925" style="5" customWidth="1"/>
+    <col min="29" max="29" width="35.4333333333333" style="5" customWidth="1"/>
+    <col min="30" max="30" width="10.775" style="5" customWidth="1"/>
+    <col min="31" max="32" width="18.075" style="5" customWidth="1"/>
+    <col min="33" max="33" width="14.8583333333333" style="5" customWidth="1"/>
+    <col min="34" max="34" width="24.5666666666667" style="5" customWidth="1"/>
+    <col min="35" max="35" width="32.8166666666667" style="5" customWidth="1"/>
+    <col min="36" max="36" width="31.1833333333333" style="5" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:35">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1648,222 +1655,231 @@
       <c r="AI1" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="AJ1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:35">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:36">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="AH2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:35">
+    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:36">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="U3" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="V3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="W3" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="X3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="Y3" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="Z3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC3" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="AC3" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="AD3" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH3" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="AH3" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="AI3" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:34">
+    <row r="4" customHeight="1" spans="1:35">
       <c r="A4" s="5">
         <v>1001</v>
       </c>
@@ -1874,10 +1890,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1889,16 +1905,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
@@ -1906,62 +1922,63 @@
       <c r="N4" s="5">
         <v>90</v>
       </c>
-      <c r="P4" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="5">
+      <c r="P4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="5">
         <v>3500</v>
       </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
-      </c>
       <c r="T4" s="5">
         <v>0</v>
       </c>
       <c r="U4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5">
         <v>0</v>
       </c>
       <c r="W4" s="5">
-        <v>0</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
       </c>
       <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="5">
         <v>0.85</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="5">
+      <c r="AB4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
         <v>1.5</v>
       </c>
-      <c r="AC4" s="5">
-        <v>0</v>
-      </c>
       <c r="AE4" s="5">
         <v>0</v>
       </c>
-      <c r="AF4" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AG4" s="5">
         <v>0</v>
       </c>
-      <c r="AH4" s="5" t="s">
-        <v>85</v>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:34">
+    <row r="5" customHeight="1" spans="1:35">
       <c r="A5" s="5">
         <v>1002</v>
       </c>
@@ -1972,10 +1989,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1987,16 +2004,16 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M5" s="5">
         <v>0</v>
@@ -2004,62 +2021,63 @@
       <c r="N5" s="5">
         <v>90</v>
       </c>
-      <c r="P5" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="5">
+      <c r="P5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="5">
         <v>3500</v>
       </c>
-      <c r="R5" s="5">
+      <c r="T5" s="5">
         <v>20</v>
       </c>
-      <c r="S5" s="5">
+      <c r="U5" s="5">
         <v>150</v>
       </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>1</v>
-      </c>
       <c r="V5" s="5">
         <v>0</v>
       </c>
       <c r="W5" s="5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0</v>
       </c>
       <c r="Y5" s="5">
         <v>0</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA5" s="5">
         <v>0</v>
       </c>
-      <c r="AB5" s="5">
+      <c r="AB5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
         <v>5</v>
       </c>
-      <c r="AC5" s="5">
-        <v>0</v>
-      </c>
       <c r="AE5" s="5">
         <v>0</v>
       </c>
-      <c r="AF5" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AG5" s="5">
         <v>0</v>
       </c>
-      <c r="AH5" s="5" t="s">
-        <v>85</v>
+      <c r="AH5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:34">
+    <row r="6" customHeight="1" spans="1:35">
       <c r="A6" s="5">
         <v>1003</v>
       </c>
@@ -2070,10 +2088,10 @@
         <v>1003</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2085,16 +2103,16 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K6" s="5">
         <v>1</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M6" s="5">
         <v>4000</v>
@@ -2102,62 +2120,63 @@
       <c r="N6" s="5">
         <v>0</v>
       </c>
-      <c r="P6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="P6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
         <v>25</v>
       </c>
-      <c r="S6" s="5">
+      <c r="U6" s="5">
         <v>100</v>
       </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
+      <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
         <v>0.8</v>
       </c>
-      <c r="V6" s="5">
-        <v>0</v>
-      </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>82</v>
+      <c r="X6" s="5">
+        <v>0</v>
       </c>
       <c r="Y6" s="5">
         <v>0</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AA6" s="5">
         <v>0</v>
       </c>
-      <c r="AB6" s="5">
+      <c r="AB6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
         <v>3.5</v>
       </c>
-      <c r="AC6" s="5">
-        <v>0</v>
-      </c>
       <c r="AE6" s="5">
         <v>0</v>
       </c>
-      <c r="AF6" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AG6" s="5">
         <v>0</v>
       </c>
-      <c r="AH6" s="5" t="s">
-        <v>94</v>
+      <c r="AH6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:34">
+    <row r="7" customHeight="1" spans="1:35">
       <c r="A7" s="5">
         <v>2001</v>
       </c>
@@ -2168,10 +2187,10 @@
         <v>2001</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -2183,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -2200,62 +2219,63 @@
       <c r="N7" s="7">
         <v>90</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q7" s="5">
+      <c r="P7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S7" s="5">
         <v>3500</v>
       </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
       <c r="T7" s="5">
+        <v>0</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
         <v>200</v>
       </c>
-      <c r="U7" s="5">
+      <c r="W7" s="5">
         <v>1.2</v>
       </c>
-      <c r="V7" s="5">
-        <v>1</v>
-      </c>
-      <c r="W7" s="5">
-        <v>0</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>82</v>
+      <c r="X7" s="5">
+        <v>1</v>
       </c>
       <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA7" s="5">
         <v>0.9</v>
       </c>
-      <c r="Z7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
+      <c r="AB7" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="AC7" s="5">
         <v>0</v>
       </c>
+      <c r="AD7" s="5">
+        <v>0</v>
+      </c>
       <c r="AE7" s="5">
         <v>0</v>
       </c>
-      <c r="AF7" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="AG7" s="5">
         <v>0</v>
       </c>
-      <c r="AH7" s="5" t="s">
-        <v>98</v>
+      <c r="AH7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:34">
+    <row r="8" customHeight="1" spans="1:35">
       <c r="A8" s="5">
         <v>2002</v>
       </c>
@@ -2266,10 +2286,10 @@
         <v>2002</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2281,16 +2301,16 @@
         <v>5</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" s="5">
         <v>4000</v>
@@ -2299,64 +2319,67 @@
         <v>0</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q8" s="5">
+        <v>102</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" s="5">
         <v>20000</v>
       </c>
-      <c r="R8" s="5">
+      <c r="T8" s="5">
         <v>35</v>
       </c>
-      <c r="S8" s="5">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
         <v>250</v>
-      </c>
-      <c r="U8" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1</v>
       </c>
       <c r="W8" s="5">
         <v>1.5</v>
       </c>
-      <c r="X8" s="5" t="s">
-        <v>102</v>
+      <c r="X8" s="5">
+        <v>1</v>
       </c>
       <c r="Y8" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AA8" s="5">
         <v>0</v>
       </c>
-      <c r="AB8" s="5">
+      <c r="AB8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
         <v>5</v>
       </c>
-      <c r="AC8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="AE8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG8" s="5">
         <v>15000</v>
       </c>
-      <c r="AF8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>105</v>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:34">
+    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:35">
       <c r="A9" s="4">
         <v>2003</v>
       </c>
@@ -2367,10 +2390,10 @@
         <v>2003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2382,16 +2405,16 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -2400,20 +2423,17 @@
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="4">
+        <v>109</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="4">
         <v>10000</v>
       </c>
-      <c r="R9" s="4">
+      <c r="T9" s="4">
         <v>35</v>
       </c>
-      <c r="S9" s="4">
-        <v>0</v>
-      </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
       <c r="U9" s="4">
         <v>0</v>
       </c>
@@ -2421,40 +2441,43 @@
         <v>0</v>
       </c>
       <c r="W9" s="4">
+        <v>0</v>
+      </c>
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
         <v>2.4</v>
       </c>
-      <c r="X9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>0</v>
-      </c>
       <c r="Z9" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="AA9" s="4">
         <v>0</v>
       </c>
-      <c r="AB9" s="4">
+      <c r="AB9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
         <v>10</v>
       </c>
-      <c r="AC9" s="4">
-        <v>0</v>
-      </c>
       <c r="AE9" s="4">
         <v>0</v>
       </c>
-      <c r="AF9" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="AG9" s="4">
         <v>0</v>
       </c>
-      <c r="AH9" s="4" t="s">
-        <v>105</v>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:34">
+    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:35">
       <c r="A10" s="4">
         <v>2004</v>
       </c>
@@ -2465,10 +2488,10 @@
         <v>2004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2480,16 +2503,16 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -2498,20 +2521,17 @@
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q10" s="4">
+        <v>113</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="4">
         <v>10000</v>
       </c>
-      <c r="R10" s="4">
+      <c r="T10" s="4">
         <v>35</v>
       </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
       <c r="U10" s="4">
         <v>0</v>
       </c>
@@ -2519,40 +2539,43 @@
         <v>0</v>
       </c>
       <c r="W10" s="4">
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
         <v>2.4</v>
       </c>
-      <c r="X10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>0</v>
-      </c>
       <c r="Z10" s="4" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="AA10" s="4">
         <v>0</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
         <v>10</v>
       </c>
-      <c r="AC10" s="4">
-        <v>0</v>
-      </c>
       <c r="AE10" s="4">
         <v>0</v>
       </c>
-      <c r="AF10" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="AG10" s="4">
         <v>0</v>
       </c>
-      <c r="AH10" s="4" t="s">
-        <v>105</v>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:35">
+    <row r="11" customFormat="1" customHeight="1" spans="1:36">
       <c r="A11" s="5">
         <v>4001</v>
       </c>
@@ -2563,10 +2586,10 @@
         <v>4001</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -2578,16 +2601,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K11" s="5">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M11" s="5">
         <v>3000</v>
@@ -2596,64 +2619,65 @@
         <v>90</v>
       </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q11" s="5">
+      <c r="P11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S11" s="5">
         <v>3000</v>
       </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5">
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
         <v>100</v>
       </c>
-      <c r="T11" s="5">
-        <v>0</v>
-      </c>
-      <c r="U11" s="5">
-        <v>1</v>
-      </c>
       <c r="V11" s="5">
         <v>0</v>
       </c>
       <c r="W11" s="5">
-        <v>0</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X11" s="5">
+        <v>0</v>
       </c>
       <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA11" s="5">
         <v>0.83</v>
       </c>
-      <c r="Z11" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="5"/>
+      <c r="AB11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>0</v>
+      </c>
       <c r="AE11" s="5">
         <v>0</v>
       </c>
-      <c r="AF11" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="AF11" s="5"/>
       <c r="AG11" s="5">
         <v>0</v>
       </c>
-      <c r="AH11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI11" s="5"/>
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ11" s="5"/>
     </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:35">
+    <row r="12" customFormat="1" customHeight="1" spans="1:36">
       <c r="A12" s="5">
         <v>4002</v>
       </c>
@@ -2664,10 +2688,10 @@
         <v>4002</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -2679,16 +2703,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K12" s="5">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M12" s="5">
         <v>3000</v>
@@ -2697,64 +2721,65 @@
         <v>0</v>
       </c>
       <c r="O12" s="5"/>
-      <c r="P12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q12" s="5">
+      <c r="P12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S12" s="5">
         <v>3000</v>
       </c>
-      <c r="R12" s="5">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5">
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
         <v>100</v>
       </c>
-      <c r="T12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
-        <v>1</v>
-      </c>
       <c r="V12" s="5">
         <v>0</v>
       </c>
       <c r="W12" s="5">
-        <v>0</v>
-      </c>
-      <c r="X12" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
       </c>
       <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA12" s="5">
         <v>1.06</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="5"/>
+      <c r="AB12" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
       <c r="AE12" s="5">
         <v>0</v>
       </c>
-      <c r="AF12" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="AF12" s="5"/>
       <c r="AG12" s="5">
         <v>0</v>
       </c>
-      <c r="AH12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI12" s="5"/>
+      <c r="AH12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ12" s="5"/>
     </row>
-    <row r="13" customFormat="1" customHeight="1" spans="1:35">
+    <row r="13" customFormat="1" customHeight="1" spans="1:36">
       <c r="A13" s="5">
         <v>4003</v>
       </c>
@@ -2765,10 +2790,10 @@
         <v>4003</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -2780,16 +2805,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K13" s="5">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M13" s="5">
         <v>3000</v>
@@ -2798,64 +2823,65 @@
         <v>90</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q13" s="5">
+      <c r="P13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" s="5">
         <v>3000</v>
       </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5">
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
         <v>200</v>
       </c>
-      <c r="T13" s="5">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5">
-        <v>1</v>
-      </c>
       <c r="V13" s="5">
         <v>0</v>
       </c>
       <c r="W13" s="5">
-        <v>0</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
       </c>
       <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA13" s="5">
         <v>2</v>
       </c>
-      <c r="Z13" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="5"/>
+      <c r="AB13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0</v>
+      </c>
       <c r="AE13" s="5">
         <v>0</v>
       </c>
-      <c r="AF13" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="AF13" s="5"/>
       <c r="AG13" s="5">
         <v>0</v>
       </c>
-      <c r="AH13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI13" s="5"/>
+      <c r="AH13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ13" s="5"/>
     </row>
-    <row r="14" customFormat="1" customHeight="1" spans="1:35">
+    <row r="14" customFormat="1" customHeight="1" spans="1:36">
       <c r="A14" s="5">
         <v>4004</v>
       </c>
@@ -2866,10 +2892,10 @@
         <v>4004</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -2881,16 +2907,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="M14" s="5">
         <v>4000</v>
@@ -2899,64 +2925,65 @@
         <v>90</v>
       </c>
       <c r="O14" s="5"/>
-      <c r="P14" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="5">
+      <c r="P14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S14" s="5">
         <v>3000</v>
       </c>
-      <c r="R14" s="5">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5">
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
         <v>200</v>
       </c>
-      <c r="T14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>1</v>
-      </c>
       <c r="V14" s="5">
         <v>0</v>
       </c>
       <c r="W14" s="5">
-        <v>0</v>
-      </c>
-      <c r="X14" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
       </c>
       <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA14" s="5">
         <v>1.8</v>
       </c>
-      <c r="Z14" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5">
+      <c r="AB14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
         <v>10</v>
       </c>
-      <c r="AC14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="5"/>
       <c r="AE14" s="5">
         <v>0</v>
       </c>
-      <c r="AF14" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="AF14" s="5"/>
       <c r="AG14" s="5">
         <v>0</v>
       </c>
-      <c r="AH14" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI14" s="5"/>
+      <c r="AH14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ14" s="5"/>
     </row>
-    <row r="15" customHeight="1" spans="1:34">
+    <row r="15" customHeight="1" spans="1:35">
       <c r="A15" s="5">
         <v>10001</v>
       </c>
@@ -2967,10 +2994,10 @@
         <v>10001</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -2982,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M15" s="5">
         <v>0</v>
@@ -2999,62 +3026,63 @@
       <c r="N15" s="5">
         <v>90</v>
       </c>
-      <c r="P15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q15" s="5">
+      <c r="P15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" s="5">
         <v>3000</v>
       </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
+      <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
         <v>50</v>
       </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>1</v>
-      </c>
       <c r="V15" s="5">
         <v>0</v>
       </c>
       <c r="W15" s="5">
-        <v>0</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X15" s="5">
+        <v>0</v>
       </c>
       <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA15" s="5">
         <v>0.85</v>
       </c>
-      <c r="Z15" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA15" s="5">
+      <c r="AB15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC15" s="5">
         <v>1.5</v>
       </c>
-      <c r="AB15" s="5">
+      <c r="AD15" s="5">
         <v>2</v>
       </c>
-      <c r="AC15" s="5">
-        <v>0</v>
-      </c>
       <c r="AE15" s="5">
         <v>0</v>
       </c>
-      <c r="AF15" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AG15" s="5">
         <v>0</v>
       </c>
-      <c r="AH15" s="5" t="s">
-        <v>130</v>
+      <c r="AH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:34">
+    <row r="16" customHeight="1" spans="1:35">
       <c r="A16" s="5">
         <v>10002</v>
       </c>
@@ -3065,10 +3093,10 @@
         <v>10002</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -3080,16 +3108,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M16" s="5">
         <v>0</v>
@@ -3097,62 +3125,63 @@
       <c r="N16" s="5">
         <v>90</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q16" s="5">
+      <c r="P16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S16" s="5">
         <v>3000</v>
       </c>
-      <c r="R16" s="5">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5">
+      <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
         <v>50</v>
       </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>1</v>
-      </c>
       <c r="V16" s="5">
         <v>0</v>
       </c>
       <c r="W16" s="5">
-        <v>0</v>
-      </c>
-      <c r="X16" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X16" s="5">
+        <v>0</v>
       </c>
       <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA16" s="5">
         <v>0.85</v>
       </c>
-      <c r="Z16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA16" s="5">
+      <c r="AB16" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC16" s="5">
         <v>1.5</v>
       </c>
-      <c r="AB16" s="5">
+      <c r="AD16" s="5">
         <v>2</v>
       </c>
-      <c r="AC16" s="5">
-        <v>0</v>
-      </c>
       <c r="AE16" s="5">
         <v>0</v>
       </c>
-      <c r="AF16" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AG16" s="5">
         <v>0</v>
       </c>
-      <c r="AH16" s="5" t="s">
-        <v>133</v>
+      <c r="AH16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:34">
+    <row r="17" customHeight="1" spans="1:35">
       <c r="A17" s="5">
         <v>30001</v>
       </c>
@@ -3163,10 +3192,10 @@
         <v>30001</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -3178,16 +3207,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M17" s="5">
         <v>0</v>
@@ -3195,62 +3224,63 @@
       <c r="N17" s="5">
         <v>90</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q17" s="5">
+      <c r="P17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" s="5">
         <v>3000</v>
       </c>
-      <c r="R17" s="5">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5">
+      <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
         <v>100</v>
       </c>
-      <c r="T17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>1</v>
-      </c>
       <c r="V17" s="5">
         <v>0</v>
       </c>
       <c r="W17" s="5">
-        <v>0</v>
-      </c>
-      <c r="X17" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X17" s="5">
+        <v>0</v>
       </c>
       <c r="Y17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AA17" s="5">
         <v>1</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="5">
         <v>5</v>
       </c>
-      <c r="AC17" s="5">
-        <v>0</v>
-      </c>
       <c r="AE17" s="5">
         <v>0</v>
       </c>
-      <c r="AF17" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AG17" s="5">
         <v>0</v>
       </c>
-      <c r="AH17" s="5" t="s">
-        <v>136</v>
+      <c r="AH17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:34">
+    <row r="18" customHeight="1" spans="1:35">
       <c r="A18" s="5">
         <v>30002</v>
       </c>
@@ -3261,10 +3291,10 @@
         <v>30002</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -3276,16 +3306,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M18" s="5">
         <v>0</v>
@@ -3293,62 +3323,63 @@
       <c r="N18" s="5">
         <v>90</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q18" s="5">
+      <c r="P18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S18" s="5">
         <v>3000</v>
       </c>
-      <c r="R18" s="5">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5">
+      <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
         <v>100</v>
       </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>1</v>
-      </c>
       <c r="V18" s="5">
         <v>0</v>
       </c>
       <c r="W18" s="5">
-        <v>0</v>
-      </c>
-      <c r="X18" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X18" s="5">
+        <v>0</v>
       </c>
       <c r="Y18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="AA18" s="5">
         <v>1</v>
       </c>
-      <c r="AB18" s="5">
+      <c r="AB18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="5">
         <v>5</v>
       </c>
-      <c r="AC18" s="5">
-        <v>0</v>
-      </c>
       <c r="AE18" s="5">
         <v>0</v>
       </c>
-      <c r="AF18" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AG18" s="5">
         <v>0</v>
       </c>
-      <c r="AH18" s="5" t="s">
-        <v>98</v>
+      <c r="AH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:34">
+    <row r="19" customHeight="1" spans="1:35">
       <c r="A19" s="5">
         <v>30003</v>
       </c>
@@ -3359,10 +3390,10 @@
         <v>30003</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -3374,16 +3405,16 @@
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M19" s="5">
         <v>0</v>
@@ -3391,59 +3422,60 @@
       <c r="N19" s="5">
         <v>90</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="5">
+      <c r="P19" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" s="5">
         <v>3000</v>
       </c>
-      <c r="R19" s="5">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
         <v>200</v>
       </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>1</v>
-      </c>
       <c r="V19" s="5">
         <v>0</v>
       </c>
       <c r="W19" s="5">
-        <v>0</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>82</v>
+        <v>1</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
       </c>
       <c r="Y19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="AA19" s="5">
         <v>1</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="5">
         <v>5</v>
       </c>
-      <c r="AC19" s="5">
-        <v>0</v>
-      </c>
       <c r="AE19" s="5">
         <v>0</v>
       </c>
-      <c r="AF19" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="AG19" s="5">
         <v>0</v>
       </c>
-      <c r="AH19" s="5" t="s">
-        <v>136</v>
+      <c r="AH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3482,51 +3514,51 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="24045" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>大凉龙雀</author>
   </authors>
   <commentList>
-    <comment ref="AH3" authorId="0">
+    <comment ref="AI3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI3" authorId="0">
+    <comment ref="AJ3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="148">
   <si>
     <t>ID</t>
   </si>
@@ -120,7 +120,7 @@
     <t>EffectAreaType</t>
   </si>
   <si>
-    <t>Area</t>
+    <t>EffectAreaRadius</t>
   </si>
   <si>
     <t>EffectAreaAngle</t>
@@ -138,9 +138,6 @@
     <t>HitArt</t>
   </si>
   <si>
-    <t>SpellRange</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -177,6 +174,12 @@
     <t>IsMissile</t>
   </si>
   <si>
+    <t>MissileIsGroupAttack</t>
+  </si>
+  <si>
+    <t>MissileEffectRadius</t>
+  </si>
+  <si>
     <t>Missile</t>
   </si>
   <si>
@@ -246,7 +249,7 @@
     <t>技能影响的有效范围类别</t>
   </si>
   <si>
-    <t>影响半径区域</t>
+    <t>影响半径区域，也作施法距离</t>
   </si>
   <si>
     <t>影响的扇形角度，以角色的forword为中心</t>
@@ -264,9 +267,6 @@
     <t>击中效果，粒子特效</t>
   </si>
   <si>
-    <t>施法距离</t>
-  </si>
-  <si>
     <t>魔法消耗</t>
   </si>
   <si>
@@ -303,6 +303,12 @@
     <t>是否是投射物</t>
   </si>
   <si>
+    <t>投射物是否造成群体伤害</t>
+  </si>
+  <si>
+    <t>投射物造成伤害的半径</t>
+  </si>
+  <si>
     <t>投射物</t>
   </si>
   <si>
@@ -399,22 +405,22 @@
     <t>Intonate</t>
   </si>
   <si>
-    <t>Effects/Fly/FireBall</t>
+    <t>Combat/Effects/Fly/FireBall</t>
+  </si>
+  <si>
+    <t>风行术</t>
+  </si>
+  <si>
+    <t>提高目标的移动速度和闪避</t>
+  </si>
+  <si>
+    <t>UI/Texture/skill/skill_icon_2003</t>
+  </si>
+  <si>
+    <t>VictoryStart</t>
   </si>
   <si>
     <t>[0]</t>
-  </si>
-  <si>
-    <t>风行术</t>
-  </si>
-  <si>
-    <t>提高目标的移动速度和闪避</t>
-  </si>
-  <si>
-    <t>UI/Texture/skill/skill_icon_2003</t>
-  </si>
-  <si>
-    <t>VictoryStart</t>
   </si>
   <si>
     <t>无敌</t>
@@ -1507,10 +1513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1525,31 +1531,32 @@
     <col min="8" max="8" width="10.775" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.8583333333333" style="5" customWidth="1"/>
     <col min="10" max="12" width="23.475" style="5" customWidth="1"/>
-    <col min="13" max="13" width="17.6083333333333" style="5" customWidth="1"/>
+    <col min="13" max="13" width="30.7583333333333" style="5" customWidth="1"/>
     <col min="14" max="14" width="35.975" style="5" customWidth="1"/>
     <col min="15" max="15" width="40.4333333333333" style="5" customWidth="1"/>
     <col min="16" max="16" width="34.125" style="5" customWidth="1"/>
     <col min="17" max="17" width="43.1416666666667" style="5" customWidth="1"/>
     <col min="18" max="18" width="29.45" style="5" customWidth="1"/>
-    <col min="19" max="21" width="10.775" style="5" customWidth="1"/>
-    <col min="22" max="22" width="9" style="5"/>
-    <col min="23" max="23" width="16.1916666666667" style="5" customWidth="1"/>
-    <col min="24" max="24" width="9" style="5"/>
-    <col min="25" max="25" width="15.65" style="5" customWidth="1"/>
-    <col min="26" max="26" width="23.475" style="5" customWidth="1"/>
-    <col min="27" max="27" width="24.4333333333333" style="5" customWidth="1"/>
-    <col min="28" max="28" width="22.925" style="5" customWidth="1"/>
-    <col min="29" max="29" width="35.4333333333333" style="5" customWidth="1"/>
-    <col min="30" max="30" width="10.775" style="5" customWidth="1"/>
-    <col min="31" max="32" width="18.075" style="5" customWidth="1"/>
-    <col min="33" max="33" width="14.8583333333333" style="5" customWidth="1"/>
-    <col min="34" max="34" width="24.5666666666667" style="5" customWidth="1"/>
-    <col min="35" max="35" width="32.8166666666667" style="5" customWidth="1"/>
-    <col min="36" max="36" width="31.1833333333333" style="5" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="5"/>
+    <col min="19" max="20" width="10.775" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9" style="5"/>
+    <col min="22" max="22" width="16.1916666666667" style="5" customWidth="1"/>
+    <col min="23" max="23" width="9" style="5"/>
+    <col min="24" max="24" width="15.65" style="5" customWidth="1"/>
+    <col min="25" max="25" width="23.475" style="5" customWidth="1"/>
+    <col min="26" max="26" width="24.4333333333333" style="5" customWidth="1"/>
+    <col min="27" max="27" width="22.925" style="5" customWidth="1"/>
+    <col min="28" max="28" width="35.4333333333333" style="5" customWidth="1"/>
+    <col min="29" max="29" width="10.775" style="5" customWidth="1"/>
+    <col min="30" max="30" width="18.075" style="5" customWidth="1"/>
+    <col min="31" max="33" width="35.4333333333333" style="5" customWidth="1"/>
+    <col min="34" max="34" width="14.8583333333333" style="5" customWidth="1"/>
+    <col min="35" max="35" width="24.5666666666667" style="5" customWidth="1"/>
+    <col min="36" max="36" width="32.8166666666667" style="5" customWidth="1"/>
+    <col min="37" max="37" width="31.1833333333333" style="5" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:36">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1658,228 +1665,237 @@
       <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:36">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:37">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:36">
+    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:37">
       <c r="A3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>64</v>
       </c>
+      <c r="W3" s="3" t="s">
+        <v>65</v>
+      </c>
       <c r="X3" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="Z3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="AC3" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="AD3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI3" s="6" t="s">
         <v>76</v>
       </c>
+      <c r="AI3" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="AJ3" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:35">
+    <row r="4" customHeight="1" spans="1:36">
       <c r="A4" s="5">
         <v>1001</v>
       </c>
@@ -1890,10 +1906,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1905,32 +1921,32 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K4" s="5">
         <v>1</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M4" s="5">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="N4" s="5">
         <v>90</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S4" s="5">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
@@ -1939,46 +1955,46 @@
         <v>0</v>
       </c>
       <c r="V4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="5">
         <v>0</v>
       </c>
-      <c r="Y4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA4" s="5">
+      <c r="Y4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="5">
         <v>0.85</v>
       </c>
-      <c r="AB4" s="5" t="s">
-        <v>86</v>
+      <c r="AA4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
       </c>
       <c r="AC4" s="5">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
         <v>0</v>
       </c>
       <c r="AH4" s="5">
         <v>0</v>
       </c>
-      <c r="AI4" s="5" t="s">
-        <v>87</v>
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:35">
+    <row r="5" customHeight="1" spans="1:36">
       <c r="A5" s="5">
         <v>1002</v>
       </c>
@@ -1989,10 +2005,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2004,80 +2020,80 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M5" s="5">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="N5" s="5">
         <v>90</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S5" s="5">
-        <v>3500</v>
+        <v>20</v>
       </c>
       <c r="T5" s="5">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="U5" s="5">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="V5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X5" s="5">
         <v>0</v>
       </c>
-      <c r="Y5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>91</v>
+      <c r="Y5" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
       </c>
       <c r="AC5" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD5" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
         <v>0</v>
       </c>
       <c r="AH5" s="5">
         <v>0</v>
       </c>
-      <c r="AI5" s="5" t="s">
-        <v>87</v>
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:35">
+    <row r="6" customHeight="1" spans="1:36">
       <c r="A6" s="5">
         <v>1003</v>
       </c>
@@ -2088,10 +2104,10 @@
         <v>1003</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2103,80 +2119,80 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="5">
+        <v>3500</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="5">
-        <v>4000</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S6" s="5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T6" s="5">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="U6" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V6" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="W6" s="5">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="X6" s="5">
         <v>0</v>
       </c>
-      <c r="Y6" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>95</v>
+      <c r="Y6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
       </c>
       <c r="AC6" s="5">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AD6" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
         <v>0</v>
       </c>
       <c r="AH6" s="5">
         <v>0</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>96</v>
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:35">
+    <row r="7" customHeight="1" spans="1:36">
       <c r="A7" s="5">
         <v>2001</v>
       </c>
@@ -2187,10 +2203,10 @@
         <v>2001</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -2202,59 +2218,59 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K7" s="5">
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M7" s="5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N7" s="7">
         <v>90</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S7" s="5">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="T7" s="5">
         <v>0</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V7" s="5">
-        <v>200</v>
+        <v>1.2</v>
       </c>
       <c r="W7" s="5">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="X7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z7" s="5">
         <v>0.9</v>
       </c>
-      <c r="AB7" s="5" t="s">
-        <v>86</v>
+      <c r="AA7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>0</v>
       </c>
       <c r="AC7" s="5">
         <v>0</v>
@@ -2262,17 +2278,17 @@
       <c r="AD7" s="5">
         <v>0</v>
       </c>
-      <c r="AE7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
+      <c r="AF7" s="5">
         <v>0</v>
       </c>
       <c r="AH7" s="5">
         <v>0</v>
       </c>
-      <c r="AI7" s="5" t="s">
-        <v>99</v>
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:35">
@@ -2286,10 +2302,10 @@
         <v>2002</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2301,85 +2317,85 @@
         <v>5</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K8" s="5">
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M8" s="5">
+        <v>20000</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S8" s="5">
+        <v>35</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>250</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="5">
         <v>4000</v>
       </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S8" s="5">
-        <v>20000</v>
-      </c>
-      <c r="T8" s="5">
-        <v>35</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5">
-        <v>250</v>
-      </c>
-      <c r="W8" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="X8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG8" s="5">
+      <c r="AG8" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH8" s="5">
         <v>15000</v>
       </c>
-      <c r="AH8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>106</v>
+      <c r="AI8" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:35">
+    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:36">
       <c r="A9" s="4">
         <v>2003</v>
       </c>
@@ -2390,10 +2406,10 @@
         <v>2003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2405,34 +2421,34 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M9" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N9" s="5">
         <v>0</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S9" s="4">
-        <v>10000</v>
+        <v>35</v>
       </c>
       <c r="T9" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="U9" s="4">
         <v>0</v>
@@ -2444,40 +2460,40 @@
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
         <v>2.4</v>
       </c>
-      <c r="Z9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>85</v>
+      <c r="Y9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
       </c>
       <c r="AC9" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD9" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
         <v>0</v>
       </c>
       <c r="AH9" s="4">
         <v>0</v>
       </c>
-      <c r="AI9" s="4" t="s">
-        <v>106</v>
+      <c r="AI9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:35">
+    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:36">
       <c r="A10" s="4">
         <v>2004</v>
       </c>
@@ -2488,10 +2504,10 @@
         <v>2004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2503,34 +2519,34 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="4">
         <v>0</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M10" s="4">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N10" s="5">
         <v>0</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S10" s="4">
-        <v>10000</v>
+        <v>35</v>
       </c>
       <c r="T10" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="U10" s="4">
         <v>0</v>
@@ -2542,40 +2558,40 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
         <v>2.4</v>
       </c>
-      <c r="Z10" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>85</v>
+      <c r="Y10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
       </c>
       <c r="AC10" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD10" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
         <v>0</v>
       </c>
       <c r="AH10" s="4">
         <v>0</v>
       </c>
-      <c r="AI10" s="4" t="s">
-        <v>106</v>
+      <c r="AI10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:36">
+    <row r="11" customFormat="1" customHeight="1" spans="1:37">
       <c r="A11" s="5">
         <v>4001</v>
       </c>
@@ -2586,10 +2602,10 @@
         <v>4001</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -2601,16 +2617,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K11" s="5">
         <v>1</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M11" s="5">
         <v>3000</v>
@@ -2620,64 +2636,65 @@
       </c>
       <c r="O11" s="5"/>
       <c r="P11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S11" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T11" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U11" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11" s="5">
         <v>0</v>
       </c>
-      <c r="Y11" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA11" s="5">
+      <c r="Y11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z11" s="5">
         <v>0.83</v>
       </c>
-      <c r="AB11" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC11" s="4">
+      <c r="AA11" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
         <v>0</v>
       </c>
       <c r="AD11" s="5">
         <v>0</v>
       </c>
-      <c r="AE11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5">
-        <v>0</v>
-      </c>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5"/>
       <c r="AH11" s="5">
         <v>0</v>
       </c>
-      <c r="AI11" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ11" s="5"/>
+      <c r="AI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK11" s="5"/>
     </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:36">
+    <row r="12" customFormat="1" customHeight="1" spans="1:37">
       <c r="A12" s="5">
         <v>4002</v>
       </c>
@@ -2688,10 +2705,10 @@
         <v>4002</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -2703,16 +2720,16 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K12" s="5">
         <v>1</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M12" s="5">
         <v>3000</v>
@@ -2722,64 +2739,65 @@
       </c>
       <c r="O12" s="5"/>
       <c r="P12" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S12" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T12" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="5">
         <v>0</v>
       </c>
-      <c r="Y12" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA12" s="5">
+      <c r="Y12" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z12" s="5">
         <v>1.06</v>
       </c>
-      <c r="AB12" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC12" s="4">
+      <c r="AA12" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
         <v>0</v>
       </c>
       <c r="AD12" s="5">
         <v>0</v>
       </c>
-      <c r="AE12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5">
-        <v>0</v>
-      </c>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5"/>
       <c r="AH12" s="5">
         <v>0</v>
       </c>
-      <c r="AI12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ12" s="5"/>
+      <c r="AI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK12" s="5"/>
     </row>
-    <row r="13" customFormat="1" customHeight="1" spans="1:36">
+    <row r="13" customFormat="1" customHeight="1" spans="1:37">
       <c r="A13" s="5">
         <v>4003</v>
       </c>
@@ -2790,10 +2808,10 @@
         <v>4003</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -2805,16 +2823,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="5">
         <v>1</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="5">
         <v>3000</v>
@@ -2824,64 +2842,65 @@
       </c>
       <c r="O13" s="5"/>
       <c r="P13" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S13" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T13" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U13" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13" s="5">
         <v>0</v>
       </c>
-      <c r="Y13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA13" s="5">
+      <c r="Y13" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z13" s="5">
         <v>2</v>
       </c>
-      <c r="AB13" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC13" s="4">
+      <c r="AA13" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
         <v>0</v>
       </c>
       <c r="AD13" s="5">
         <v>0</v>
       </c>
-      <c r="AE13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5">
-        <v>0</v>
-      </c>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5"/>
       <c r="AH13" s="5">
         <v>0</v>
       </c>
-      <c r="AI13" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ13" s="5"/>
+      <c r="AI13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK13" s="5"/>
     </row>
-    <row r="14" customFormat="1" customHeight="1" spans="1:36">
+    <row r="14" customFormat="1" customHeight="1" spans="1:37">
       <c r="A14" s="5">
         <v>4004</v>
       </c>
@@ -2892,10 +2911,10 @@
         <v>4004</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -2907,83 +2926,84 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K14" s="5">
         <v>1</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="5">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="N14" s="5">
         <v>90</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S14" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T14" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U14" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" s="5">
         <v>0</v>
       </c>
-      <c r="Y14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA14" s="5">
+      <c r="Y14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z14" s="5">
         <v>1.8</v>
       </c>
-      <c r="AB14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>0</v>
+      <c r="AA14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>10</v>
       </c>
       <c r="AD14" s="5">
-        <v>10</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5"/>
       <c r="AH14" s="5">
         <v>0</v>
       </c>
-      <c r="AI14" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ14" s="5"/>
+      <c r="AI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AK14" s="5"/>
     </row>
-    <row r="15" customHeight="1" spans="1:35">
+    <row r="15" customHeight="1" spans="1:36">
       <c r="A15" s="5">
         <v>10001</v>
       </c>
@@ -2994,10 +3014,10 @@
         <v>10001</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -3009,80 +3029,80 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K15" s="5">
         <v>0</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M15" s="5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N15" s="5">
         <v>90</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S15" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T15" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U15" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="5">
         <v>0</v>
       </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA15" s="5">
+      <c r="Y15" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z15" s="5">
         <v>0.85</v>
       </c>
-      <c r="AB15" s="5" t="s">
-        <v>86</v>
+      <c r="AA15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>1.5</v>
       </c>
       <c r="AC15" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD15" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5">
         <v>0</v>
       </c>
       <c r="AH15" s="5">
         <v>0</v>
       </c>
-      <c r="AI15" s="5" t="s">
-        <v>132</v>
+      <c r="AI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:35">
+    <row r="16" customHeight="1" spans="1:36">
       <c r="A16" s="5">
         <v>10002</v>
       </c>
@@ -3093,10 +3113,10 @@
         <v>10002</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -3108,80 +3128,80 @@
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M16" s="5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N16" s="5">
         <v>90</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S16" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T16" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="U16" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="5">
         <v>0</v>
       </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA16" s="5">
+      <c r="Y16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z16" s="5">
         <v>0.85</v>
       </c>
-      <c r="AB16" s="5" t="s">
-        <v>134</v>
+      <c r="AA16" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>1.5</v>
       </c>
       <c r="AC16" s="5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AD16" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="5">
         <v>0</v>
       </c>
       <c r="AH16" s="5">
         <v>0</v>
       </c>
-      <c r="AI16" s="5" t="s">
-        <v>135</v>
+      <c r="AI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:35">
+    <row r="17" customHeight="1" spans="1:36">
       <c r="A17" s="5">
         <v>30001</v>
       </c>
@@ -3192,10 +3212,10 @@
         <v>30001</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -3207,80 +3227,80 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K17" s="5">
         <v>0</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M17" s="5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N17" s="5">
         <v>90</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S17" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T17" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U17" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" s="5">
         <v>0</v>
       </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>116</v>
+      <c r="Y17" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1</v>
       </c>
       <c r="AC17" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD17" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="5">
         <v>0</v>
       </c>
       <c r="AH17" s="5">
         <v>0</v>
       </c>
-      <c r="AI17" s="5" t="s">
-        <v>138</v>
+      <c r="AI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:35">
+    <row r="18" customHeight="1" spans="1:36">
       <c r="A18" s="5">
         <v>30002</v>
       </c>
@@ -3291,10 +3311,10 @@
         <v>30002</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -3306,80 +3326,80 @@
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M18" s="5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N18" s="5">
         <v>90</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S18" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T18" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="5">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="5">
         <v>0</v>
       </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>120</v>
+      <c r="Y18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>1</v>
       </c>
       <c r="AC18" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD18" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="5">
         <v>0</v>
       </c>
       <c r="AH18" s="5">
         <v>0</v>
       </c>
-      <c r="AI18" s="5" t="s">
-        <v>99</v>
+      <c r="AI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:35">
+    <row r="19" customHeight="1" spans="1:36">
       <c r="A19" s="5">
         <v>30003</v>
       </c>
@@ -3390,10 +3410,10 @@
         <v>30003</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -3405,77 +3425,77 @@
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K19" s="5">
         <v>0</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M19" s="5">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="N19" s="5">
         <v>90</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S19" s="5">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="T19" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U19" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="5" t="s">
-        <v>123</v>
+      <c r="Y19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>1</v>
       </c>
       <c r="AC19" s="5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD19" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="5">
         <v>0</v>
       </c>
       <c r="AH19" s="5">
         <v>0</v>
       </c>
-      <c r="AI19" s="5" t="s">
-        <v>138</v>
+      <c r="AI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3503,7 +3523,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
@@ -3514,51 +3534,51 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -1515,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -33,7 +33,146 @@
     <author>大凉龙雀</author>
   </authors>
   <commentList>
-    <comment ref="AI3" authorId="0">
+    <comment ref="K3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+乘了1000倍</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+单位目标用
+造成伤害的时候是只对目标造成伤害还是说是一个范围的伤害。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+无目标和点目标使用
+有目标并且范围伤害 和 有目标的攻击判断也会使用这个字段
+有无目标都是影响的区域都是以自己为中心的
+点目标是以点为中心的，需要注意</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+无目标和点目标使用
+影响的扇形角度大小，以角色的forword为中心</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+无目标和点目标使用
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+点目标用
+某些在远处的一个圆形范围内的技能</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ3" authorId="0">
+    <comment ref="AK3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="150">
   <si>
     <t>ID</t>
   </si>
@@ -114,21 +253,24 @@
     <t>TargetType</t>
   </si>
   <si>
+    <t>SpellRangeRadius</t>
+  </si>
+  <si>
     <t>IsGroupAttack</t>
   </si>
   <si>
     <t>EffectAreaType</t>
   </si>
   <si>
+    <t>EffectAreaAngle</t>
+  </si>
+  <si>
+    <t>EffectAreaLengthWidth</t>
+  </si>
+  <si>
     <t>EffectAreaRadius</t>
   </si>
   <si>
-    <t>EffectAreaAngle</t>
-  </si>
-  <si>
-    <t>EffectAreaLengthWidth</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -243,19 +385,22 @@
     <t>目标类型</t>
   </si>
   <si>
+    <t>施法距离</t>
+  </si>
+  <si>
     <t>是否是群体体攻击</t>
   </si>
   <si>
     <t>技能影响的有效范围类别</t>
   </si>
   <si>
-    <t>影响半径区域，也作施法距离</t>
-  </si>
-  <si>
-    <t>影响的扇形角度，以角色的forword为中心</t>
+    <t>扇形角度大小</t>
   </si>
   <si>
     <t>影响的矩形区域，以角色的forword为起始方向</t>
+  </si>
+  <si>
+    <t>影响范围的半径</t>
   </si>
   <si>
     <t>技能图标</t>
@@ -1513,10 +1658,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK19"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1530,33 +1675,34 @@
     <col min="7" max="7" width="11.4333333333333" style="5" customWidth="1"/>
     <col min="8" max="8" width="10.775" style="5" customWidth="1"/>
     <col min="9" max="9" width="15.8583333333333" style="5" customWidth="1"/>
-    <col min="10" max="12" width="23.475" style="5" customWidth="1"/>
-    <col min="13" max="13" width="30.7583333333333" style="5" customWidth="1"/>
+    <col min="10" max="10" width="23.475" style="5" customWidth="1"/>
+    <col min="11" max="11" width="30.7583333333333" style="5" customWidth="1"/>
+    <col min="12" max="13" width="23.475" style="5" customWidth="1"/>
     <col min="14" max="14" width="35.975" style="5" customWidth="1"/>
     <col min="15" max="15" width="40.4333333333333" style="5" customWidth="1"/>
-    <col min="16" max="16" width="34.125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="43.1416666666667" style="5" customWidth="1"/>
-    <col min="18" max="18" width="29.45" style="5" customWidth="1"/>
-    <col min="19" max="20" width="10.775" style="5" customWidth="1"/>
-    <col min="21" max="21" width="9" style="5"/>
-    <col min="22" max="22" width="16.1916666666667" style="5" customWidth="1"/>
-    <col min="23" max="23" width="9" style="5"/>
-    <col min="24" max="24" width="15.65" style="5" customWidth="1"/>
-    <col min="25" max="25" width="23.475" style="5" customWidth="1"/>
-    <col min="26" max="26" width="24.4333333333333" style="5" customWidth="1"/>
-    <col min="27" max="27" width="22.925" style="5" customWidth="1"/>
-    <col min="28" max="28" width="35.4333333333333" style="5" customWidth="1"/>
-    <col min="29" max="29" width="10.775" style="5" customWidth="1"/>
-    <col min="30" max="30" width="18.075" style="5" customWidth="1"/>
-    <col min="31" max="33" width="35.4333333333333" style="5" customWidth="1"/>
-    <col min="34" max="34" width="14.8583333333333" style="5" customWidth="1"/>
-    <col min="35" max="35" width="24.5666666666667" style="5" customWidth="1"/>
-    <col min="36" max="36" width="32.8166666666667" style="5" customWidth="1"/>
-    <col min="37" max="37" width="31.1833333333333" style="5" customWidth="1"/>
-    <col min="43" max="16384" width="9" style="5"/>
+    <col min="16" max="17" width="34.125" style="5" customWidth="1"/>
+    <col min="18" max="18" width="43.1416666666667" style="5" customWidth="1"/>
+    <col min="19" max="19" width="29.45" style="5" customWidth="1"/>
+    <col min="20" max="21" width="10.775" style="5" customWidth="1"/>
+    <col min="22" max="22" width="9" style="5"/>
+    <col min="23" max="23" width="16.1916666666667" style="5" customWidth="1"/>
+    <col min="24" max="24" width="9" style="5"/>
+    <col min="25" max="25" width="15.65" style="5" customWidth="1"/>
+    <col min="26" max="26" width="23.475" style="5" customWidth="1"/>
+    <col min="27" max="27" width="24.4333333333333" style="5" customWidth="1"/>
+    <col min="28" max="28" width="22.925" style="5" customWidth="1"/>
+    <col min="29" max="29" width="35.4333333333333" style="5" customWidth="1"/>
+    <col min="30" max="30" width="10.775" style="5" customWidth="1"/>
+    <col min="31" max="31" width="18.075" style="5" customWidth="1"/>
+    <col min="32" max="34" width="35.4333333333333" style="5" customWidth="1"/>
+    <col min="35" max="35" width="14.8583333333333" style="5" customWidth="1"/>
+    <col min="36" max="36" width="24.5666666666667" style="5" customWidth="1"/>
+    <col min="37" max="37" width="32.8166666666667" style="5" customWidth="1"/>
+    <col min="38" max="38" width="31.1833333333333" style="5" customWidth="1"/>
+    <col min="44" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:37">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:38">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1668,234 +1814,243 @@
       <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:37">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="U2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:37">
+    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:38">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="K3" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="L3" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="M3" s="6" t="s">
+        <v>56</v>
+      </c>
       <c r="N3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="W3" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="X3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AA3" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="AC3" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="AD3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
         <v>78</v>
       </c>
+      <c r="AJ3" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="AK3" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:36">
+    <row r="4" customHeight="1" spans="1:37">
       <c r="A4" s="5">
         <v>1001</v>
       </c>
@@ -1906,10 +2061,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -1921,32 +2076,32 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K4" s="5">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="5">
         <v>3500</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N4" s="5">
         <v>90</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" s="5">
-        <v>0</v>
+      <c r="P4" s="5">
+        <v>3500</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
@@ -1955,46 +2110,49 @@
         <v>0</v>
       </c>
       <c r="V4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" s="5">
         <v>0</v>
       </c>
-      <c r="Y4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z4" s="5">
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA4" s="5">
         <v>0.85</v>
       </c>
-      <c r="AA4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB4" s="5">
-        <v>0</v>
+      <c r="AB4" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
         <v>1.5</v>
       </c>
-      <c r="AD4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="5">
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
         <v>0</v>
       </c>
       <c r="AI4" s="5">
         <v>0</v>
       </c>
-      <c r="AJ4" s="5" t="s">
-        <v>89</v>
+      <c r="AJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:36">
+    <row r="5" customHeight="1" spans="1:37">
       <c r="A5" s="5">
         <v>1002</v>
       </c>
@@ -2005,10 +2163,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2020,80 +2178,83 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="5">
         <v>3500</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N5" s="5">
         <v>90</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S5" s="5">
+      <c r="P5" s="5">
+        <v>3500</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5" s="5">
         <v>20</v>
       </c>
-      <c r="T5" s="5">
+      <c r="U5" s="5">
         <v>150</v>
       </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
       <c r="V5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="5">
         <v>0</v>
       </c>
-      <c r="Y5" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>0</v>
+      <c r="Y5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="AC5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="5">
         <v>5</v>
       </c>
-      <c r="AD5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="5">
+      <c r="AE5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
         <v>0</v>
       </c>
       <c r="AI5" s="5">
         <v>0</v>
       </c>
-      <c r="AJ5" s="5" t="s">
-        <v>89</v>
+      <c r="AJ5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:36">
+    <row r="6" customHeight="1" spans="1:37">
       <c r="A6" s="5">
         <v>1003</v>
       </c>
@@ -2104,10 +2265,10 @@
         <v>1003</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2119,80 +2280,83 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="5">
+        <v>3500</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>3500</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="K6" s="5">
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="5">
-        <v>3500</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S6" s="5">
+      <c r="R6" s="4"/>
+      <c r="S6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T6" s="5">
         <v>25</v>
       </c>
-      <c r="T6" s="5">
+      <c r="U6" s="5">
         <v>100</v>
       </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
       <c r="V6" s="5">
+        <v>0</v>
+      </c>
+      <c r="W6" s="5">
         <v>0.8</v>
       </c>
-      <c r="W6" s="5">
-        <v>0</v>
-      </c>
       <c r="X6" s="5">
         <v>0</v>
       </c>
-      <c r="Y6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" s="5">
-        <v>0</v>
+      <c r="Y6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="AC6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="5">
         <v>3.5</v>
       </c>
-      <c r="AD6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="5">
+      <c r="AE6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
         <v>0</v>
       </c>
       <c r="AI6" s="5">
         <v>0</v>
       </c>
-      <c r="AJ6" s="5" t="s">
-        <v>98</v>
+      <c r="AJ6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:36">
+    <row r="7" customHeight="1" spans="1:37">
       <c r="A7" s="5">
         <v>2001</v>
       </c>
@@ -2203,10 +2367,10 @@
         <v>2001</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -2218,59 +2382,59 @@
         <v>0</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K7" s="5">
-        <v>1</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="5">
         <v>3000</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N7" s="7">
         <v>90</v>
       </c>
-      <c r="P7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
+      <c r="P7" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T7" s="5">
         <v>0</v>
       </c>
       <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
         <v>200</v>
       </c>
-      <c r="V7" s="5">
+      <c r="W7" s="5">
         <v>1.2</v>
       </c>
-      <c r="W7" s="5">
-        <v>1</v>
-      </c>
       <c r="X7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA7" s="5">
         <v>0.9</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB7" s="5">
-        <v>0</v>
+      <c r="AB7" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="AC7" s="5">
         <v>0</v>
@@ -2278,20 +2442,23 @@
       <c r="AD7" s="5">
         <v>0</v>
       </c>
-      <c r="AF7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="5">
+      <c r="AE7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
         <v>0</v>
       </c>
       <c r="AI7" s="5">
         <v>0</v>
       </c>
-      <c r="AJ7" s="5" t="s">
-        <v>101</v>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:35">
+    <row r="8" customHeight="1" spans="1:36">
       <c r="A8" s="5">
         <v>2002</v>
       </c>
@@ -2302,10 +2469,10 @@
         <v>2002</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2317,85 +2484,88 @@
         <v>5</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K8" s="5">
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M8" s="5">
         <v>20000</v>
       </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="N8" s="5">
         <v>0</v>
       </c>
-      <c r="P8" s="5" t="s">
-        <v>104</v>
+      <c r="P8" s="5">
+        <v>20000</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S8" s="5">
+        <v>107</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="5">
         <v>35</v>
       </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
       <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
         <v>250</v>
       </c>
-      <c r="V8" s="5">
+      <c r="W8" s="5">
         <v>1.5</v>
       </c>
-      <c r="W8" s="5">
-        <v>1</v>
-      </c>
       <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
         <v>1.5</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB8" s="5">
-        <v>0</v>
+      <c r="Z8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="AC8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="5">
         <v>5</v>
       </c>
-      <c r="AD8" s="5">
-        <v>1</v>
-      </c>
       <c r="AE8" s="5">
         <v>1</v>
       </c>
       <c r="AF8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="5">
         <v>4000</v>
       </c>
-      <c r="AG8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH8" s="5">
+      <c r="AH8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI8" s="5">
         <v>15000</v>
       </c>
-      <c r="AI8" s="5">
+      <c r="AJ8" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:36">
+    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:37">
       <c r="A9" s="4">
         <v>2003</v>
       </c>
@@ -2406,10 +2576,10 @@
         <v>2003</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
@@ -2421,35 +2591,35 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="4">
         <v>10000</v>
       </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="N9" s="5">
         <v>0</v>
       </c>
-      <c r="P9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S9" s="4">
+      <c r="P9" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="4">
         <v>35</v>
       </c>
-      <c r="T9" s="4">
-        <v>0</v>
-      </c>
       <c r="U9" s="4">
         <v>0</v>
       </c>
@@ -2460,40 +2630,43 @@
         <v>0</v>
       </c>
       <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="4">
         <v>2.4</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>0</v>
+      <c r="Z9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4">
         <v>10</v>
       </c>
-      <c r="AD9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="4">
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
         <v>0</v>
       </c>
       <c r="AI9" s="4">
         <v>0</v>
       </c>
-      <c r="AJ9" s="4" t="s">
-        <v>112</v>
+      <c r="AJ9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:36">
+    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:37">
       <c r="A10" s="4">
         <v>2004</v>
       </c>
@@ -2504,10 +2677,10 @@
         <v>2004</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2519,35 +2692,35 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M10" s="4">
         <v>10000</v>
       </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="N10" s="5">
         <v>0</v>
       </c>
-      <c r="P10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="P10" s="4">
+        <v>10000</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="4">
         <v>35</v>
       </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
       <c r="U10" s="4">
         <v>0</v>
       </c>
@@ -2558,40 +2731,43 @@
         <v>0</v>
       </c>
       <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="4">
         <v>2.4</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>0</v>
+      <c r="Z10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4">
         <v>10</v>
       </c>
-      <c r="AD10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4">
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
         <v>0</v>
       </c>
       <c r="AI10" s="4">
         <v>0</v>
       </c>
-      <c r="AJ10" s="4" t="s">
-        <v>112</v>
+      <c r="AJ10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:37">
+    <row r="11" customFormat="1" customHeight="1" spans="1:38">
       <c r="A11" s="5">
         <v>4001</v>
       </c>
@@ -2602,10 +2778,10 @@
         <v>4001</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -2617,84 +2793,87 @@
         <v>0</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11" s="5">
         <v>3000</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N11" s="5">
         <v>90</v>
       </c>
       <c r="O11" s="5"/>
-      <c r="P11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S11" s="5">
-        <v>0</v>
+      <c r="P11" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
         <v>100</v>
       </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
       <c r="V11" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="5">
         <v>0</v>
       </c>
-      <c r="Y11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z11" s="5">
+      <c r="Y11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA11" s="5">
         <v>0.83</v>
       </c>
-      <c r="AA11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="5">
+      <c r="AB11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC11" s="4">
         <v>0</v>
       </c>
       <c r="AD11" s="5">
         <v>0</v>
       </c>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5">
-        <v>0</v>
-      </c>
+      <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5"/>
       <c r="AI11" s="5">
         <v>0</v>
       </c>
-      <c r="AJ11" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK11" s="5"/>
+      <c r="AJ11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL11" s="5"/>
     </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:37">
+    <row r="12" customFormat="1" customHeight="1" spans="1:38">
       <c r="A12" s="5">
         <v>4002</v>
       </c>
@@ -2705,10 +2884,10 @@
         <v>4002</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -2720,84 +2899,87 @@
         <v>0</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="M12" s="5">
         <v>3000</v>
       </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="5">
         <v>0</v>
       </c>
       <c r="O12" s="5"/>
-      <c r="P12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S12" s="5">
-        <v>0</v>
+      <c r="P12" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
         <v>100</v>
       </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
       <c r="V12" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="5">
         <v>0</v>
       </c>
-      <c r="Y12" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z12" s="5">
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA12" s="5">
         <v>1.06</v>
       </c>
-      <c r="AA12" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="5">
+      <c r="AB12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC12" s="4">
         <v>0</v>
       </c>
       <c r="AD12" s="5">
         <v>0</v>
       </c>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5">
-        <v>0</v>
-      </c>
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5"/>
       <c r="AI12" s="5">
         <v>0</v>
       </c>
-      <c r="AJ12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK12" s="5"/>
+      <c r="AJ12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL12" s="5"/>
     </row>
-    <row r="13" customFormat="1" customHeight="1" spans="1:37">
+    <row r="13" customFormat="1" customHeight="1" spans="1:38">
       <c r="A13" s="5">
         <v>4003</v>
       </c>
@@ -2808,10 +2990,10 @@
         <v>4003</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -2823,84 +3005,87 @@
         <v>0</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="5">
         <v>3000</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N13" s="5">
         <v>90</v>
       </c>
       <c r="O13" s="5"/>
-      <c r="P13" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S13" s="5">
-        <v>0</v>
+      <c r="P13" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
         <v>200</v>
       </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
       <c r="V13" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" s="5">
         <v>0</v>
       </c>
-      <c r="Y13" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z13" s="5">
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA13" s="5">
         <v>2</v>
       </c>
-      <c r="AA13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="5">
+      <c r="AB13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC13" s="4">
         <v>0</v>
       </c>
       <c r="AD13" s="5">
         <v>0</v>
       </c>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5">
-        <v>0</v>
-      </c>
+      <c r="AE13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5"/>
       <c r="AI13" s="5">
         <v>0</v>
       </c>
-      <c r="AJ13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="AK13" s="5"/>
+      <c r="AJ13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL13" s="5"/>
     </row>
-    <row r="14" customFormat="1" customHeight="1" spans="1:37">
+    <row r="14" customFormat="1" customHeight="1" spans="1:38">
       <c r="A14" s="5">
         <v>4004</v>
       </c>
@@ -2911,10 +3096,10 @@
         <v>4004</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -2926,84 +3111,87 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="5">
         <v>3000</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N14" s="5">
         <v>90</v>
       </c>
       <c r="O14" s="5"/>
-      <c r="P14" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S14" s="5">
-        <v>0</v>
+      <c r="P14" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
         <v>200</v>
       </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
       <c r="V14" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" s="5">
         <v>0</v>
       </c>
-      <c r="Y14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z14" s="5">
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA14" s="5">
         <v>1.8</v>
       </c>
-      <c r="AA14" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="5">
+      <c r="AB14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
         <v>10</v>
       </c>
-      <c r="AD14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5">
-        <v>0</v>
-      </c>
+      <c r="AE14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5"/>
       <c r="AI14" s="5">
         <v>0</v>
       </c>
-      <c r="AJ14" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="AK14" s="5"/>
+      <c r="AJ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL14" s="5"/>
     </row>
-    <row r="15" customHeight="1" spans="1:36">
+    <row r="15" customHeight="1" spans="1:37">
       <c r="A15" s="5">
         <v>10001</v>
       </c>
@@ -3014,10 +3202,10 @@
         <v>10001</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -3029,80 +3217,83 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" s="5">
         <v>3000</v>
+      </c>
+      <c r="L15" s="5">
+        <v>0</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N15" s="5">
         <v>90</v>
       </c>
-      <c r="P15" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S15" s="5">
-        <v>0</v>
+      <c r="P15" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T15" s="5">
+        <v>0</v>
+      </c>
+      <c r="U15" s="5">
         <v>50</v>
       </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
       <c r="V15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="5">
         <v>0</v>
       </c>
-      <c r="Y15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z15" s="5">
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA15" s="5">
         <v>0.85</v>
       </c>
-      <c r="AA15" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB15" s="5">
+      <c r="AB15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC15" s="5">
         <v>1.5</v>
       </c>
-      <c r="AC15" s="5">
+      <c r="AD15" s="5">
         <v>2</v>
       </c>
-      <c r="AD15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="5">
+      <c r="AE15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="5">
         <v>0</v>
       </c>
       <c r="AI15" s="5">
         <v>0</v>
       </c>
-      <c r="AJ15" s="5" t="s">
-        <v>134</v>
+      <c r="AJ15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:36">
+    <row r="16" customHeight="1" spans="1:37">
       <c r="A16" s="5">
         <v>10002</v>
       </c>
@@ -3113,10 +3304,10 @@
         <v>10002</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -3128,80 +3319,83 @@
         <v>0</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M16" s="5">
         <v>3000</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N16" s="5">
         <v>90</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S16" s="5">
-        <v>0</v>
+      <c r="P16" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T16" s="5">
+        <v>0</v>
+      </c>
+      <c r="U16" s="5">
         <v>50</v>
       </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
       <c r="V16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" s="5">
         <v>0</v>
       </c>
-      <c r="Y16" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z16" s="5">
+      <c r="Y16" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA16" s="5">
         <v>0.85</v>
       </c>
-      <c r="AA16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB16" s="5">
+      <c r="AB16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC16" s="5">
         <v>1.5</v>
       </c>
-      <c r="AC16" s="5">
+      <c r="AD16" s="5">
         <v>2</v>
       </c>
-      <c r="AD16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="5">
+      <c r="AE16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
         <v>0</v>
       </c>
       <c r="AI16" s="5">
         <v>0</v>
       </c>
-      <c r="AJ16" s="5" t="s">
-        <v>137</v>
+      <c r="AJ16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:36">
+    <row r="17" customHeight="1" spans="1:37">
       <c r="A17" s="5">
         <v>30001</v>
       </c>
@@ -3212,10 +3406,10 @@
         <v>30001</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
@@ -3227,80 +3421,83 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M17" s="5">
         <v>3000</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N17" s="5">
         <v>90</v>
       </c>
-      <c r="P17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S17" s="5">
-        <v>0</v>
+      <c r="P17" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T17" s="5">
+        <v>0</v>
+      </c>
+      <c r="U17" s="5">
         <v>100</v>
       </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
       <c r="V17" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" s="5">
         <v>0</v>
       </c>
-      <c r="Y17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AB17" s="5">
-        <v>1</v>
+      <c r="Y17" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="AC17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="5">
         <v>5</v>
       </c>
-      <c r="AD17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="5">
+      <c r="AE17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5">
         <v>0</v>
       </c>
       <c r="AI17" s="5">
         <v>0</v>
       </c>
-      <c r="AJ17" s="5" t="s">
-        <v>140</v>
+      <c r="AJ17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:36">
+    <row r="18" customHeight="1" spans="1:37">
       <c r="A18" s="5">
         <v>30002</v>
       </c>
@@ -3311,10 +3508,10 @@
         <v>30002</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
@@ -3326,80 +3523,83 @@
         <v>0</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" s="5">
         <v>3000</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N18" s="5">
         <v>90</v>
       </c>
-      <c r="P18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S18" s="5">
-        <v>0</v>
+      <c r="P18" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T18" s="5">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
         <v>100</v>
       </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
       <c r="V18" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="5">
         <v>0</v>
       </c>
-      <c r="Y18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA18" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB18" s="5">
-        <v>1</v>
+      <c r="Y18" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="AC18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="5">
         <v>5</v>
       </c>
-      <c r="AD18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="5">
+      <c r="AE18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="5">
         <v>0</v>
       </c>
       <c r="AI18" s="5">
         <v>0</v>
       </c>
-      <c r="AJ18" s="5" t="s">
-        <v>101</v>
+      <c r="AJ18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:36">
+    <row r="19" customHeight="1" spans="1:37">
       <c r="A19" s="5">
         <v>30003</v>
       </c>
@@ -3410,10 +3610,10 @@
         <v>30003</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -3425,77 +3625,80 @@
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="5">
         <v>3000</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="N19" s="5">
         <v>90</v>
       </c>
-      <c r="P19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="S19" s="5">
-        <v>0</v>
+      <c r="P19" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
         <v>200</v>
       </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
       <c r="V19" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="5">
         <v>0</v>
       </c>
-      <c r="Y19" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB19" s="5">
-        <v>1</v>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="AC19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="5">
         <v>5</v>
       </c>
-      <c r="AD19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="5">
+      <c r="AE19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
         <v>0</v>
       </c>
       <c r="AI19" s="5">
         <v>0</v>
       </c>
-      <c r="AJ19" s="5" t="s">
-        <v>140</v>
+      <c r="AJ19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3506,7 +3709,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>'#数据项'!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>'#数据项'!$C:$C</formula1>
     </dataValidation>
   </dataValidations>
@@ -3520,13 +3723,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
@@ -3534,51 +3737,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -484,10 +484,10 @@
     <t>扇形</t>
   </si>
   <si>
-    <t>UI/Texture/skill/skill_icon_default</t>
-  </si>
-  <si>
-    <t>Combat/Effects/Hits/Holy hit</t>
+    <t>Texture/skill_icon/skill_icon_default</t>
+  </si>
+  <si>
+    <t>Effects/Hits/Holy hit</t>
   </si>
   <si>
     <t>None</t>
@@ -541,16 +541,16 @@
     <t>对单体目标造成法术伤害</t>
   </si>
   <si>
-    <t>UI/Texture/skill/skill_icon_2002</t>
-  </si>
-  <si>
-    <t>Combat/Effects/MagicCircles/Magic circle</t>
+    <t>Texture/skill_icon/skill_icon_2002</t>
+  </si>
+  <si>
+    <t>Effects/MagicCircles/Magic circle</t>
   </si>
   <si>
     <t>Intonate</t>
   </si>
   <si>
-    <t>Combat/Effects/Fly/FireBall</t>
+    <t>Effects/Fly/FireBall</t>
   </si>
   <si>
     <t>风行术</t>
@@ -559,7 +559,7 @@
     <t>提高目标的移动速度和闪避</t>
   </si>
   <si>
-    <t>UI/Texture/skill/skill_icon_2003</t>
+    <t>Texture/skill_icon/skill_icon_2003</t>
   </si>
   <si>
     <t>VictoryStart</t>
@@ -574,7 +574,7 @@
     <t>一段时间内免疫全部伤害</t>
   </si>
   <si>
-    <t>UI/Texture/skill/skill_icon_2004</t>
+    <t>Texture/skill_icon/skill_icon_2004</t>
   </si>
   <si>
     <t>右横扫</t>
@@ -616,7 +616,7 @@
     <t>长枪的极意</t>
   </si>
   <si>
-    <t>UI/Texture/skill/skill_icon_4004</t>
+    <t>Texture/skill_icon/skill_icon_4004</t>
   </si>
   <si>
     <t>SkillG</t>
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -484,10 +484,10 @@
     <t>扇形</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_default</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Holy hit</t>
+    <t>Texture/skill_icon/skill_icon_default.png</t>
+  </si>
+  <si>
+    <t>Effects/Hits/Holy hit.prefab</t>
   </si>
   <si>
     <t>None</t>
@@ -541,16 +541,16 @@
     <t>对单体目标造成法术伤害</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_2002</t>
-  </si>
-  <si>
-    <t>Effects/MagicCircles/Magic circle</t>
+    <t>Texture/skill_icon/skill_icon_2002.png</t>
+  </si>
+  <si>
+    <t>Effects/MagicCircles/Magic circle.prefab</t>
   </si>
   <si>
     <t>Intonate</t>
   </si>
   <si>
-    <t>Effects/Fly/FireBall</t>
+    <t>Effects/Fly/FireBall.prefab</t>
   </si>
   <si>
     <t>风行术</t>
@@ -559,7 +559,7 @@
     <t>提高目标的移动速度和闪避</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_2003</t>
+    <t>Texture/skill_icon/skill_icon_2003.png</t>
   </si>
   <si>
     <t>VictoryStart</t>
@@ -574,7 +574,7 @@
     <t>一段时间内免疫全部伤害</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_2004</t>
+    <t>Texture/skill_icon/skill_icon_2004.png</t>
   </si>
   <si>
     <t>右横扫</t>
@@ -616,7 +616,7 @@
     <t>长枪的极意</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_4004</t>
+    <t>Texture/skill_icon/skill_icon_4004.png</t>
   </si>
   <si>
     <t>SkillG</t>
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2656,6 +2656,7 @@
       <c r="AG9" s="4">
         <v>0</v>
       </c>
+      <c r="AH9" s="5"/>
       <c r="AI9" s="4">
         <v>0</v>
       </c>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="AG8" s="5">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AH8" s="5" t="s">
         <v>109</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -469,7 +469,7 @@
     <t>附加效果，这里面填buffId如流血效果</t>
   </si>
   <si>
-    <t>横剑击</t>
+    <t>大剑1段</t>
   </si>
   <si>
     <t>剑士的基础招式，无消耗</t>
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AH26" sqref="AH26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AL12" sqref="AL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1699,6 +1699,7 @@
     <col min="36" max="36" width="24.5666666666667" style="5" customWidth="1"/>
     <col min="37" max="37" width="32.8166666666667" style="5" customWidth="1"/>
     <col min="38" max="38" width="31.1833333333333" style="5" customWidth="1"/>
+    <col min="39" max="39" width="40.975" customWidth="1"/>
     <col min="44" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -478,34 +478,34 @@
     <t>普通攻击</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>扇形</t>
+  </si>
+  <si>
+    <t>Texture/skill_icon/skill_icon_default.png</t>
+  </si>
+  <si>
+    <t>Effects/Hits/Holy hit.prefab</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>[0.5]</t>
+  </si>
+  <si>
+    <t>剑刃弑心</t>
+  </si>
+  <si>
+    <t>对单个目标照成物理攻击，添加流血效果</t>
+  </si>
+  <si>
+    <t>主动技能</t>
+  </si>
+  <si>
     <t>单位</t>
-  </si>
-  <si>
-    <t>扇形</t>
-  </si>
-  <si>
-    <t>Texture/skill_icon/skill_icon_default.png</t>
-  </si>
-  <si>
-    <t>Effects/Hits/Holy hit.prefab</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>[0.5]</t>
-  </si>
-  <si>
-    <t>剑刃弑心</t>
-  </si>
-  <si>
-    <t>对单个目标照成物理攻击，添加流血效果</t>
-  </si>
-  <si>
-    <t>主动技能</t>
   </si>
   <si>
     <t>SpellA</t>
@@ -1660,8 +1660,8 @@
   <sheetPr/>
   <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AL12" sqref="AL12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="Z4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="AA4" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="AC4" s="5">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:37">
@@ -2164,10 +2164,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2179,10 +2179,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="K5" s="5">
         <v>3500</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA5" s="5">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:37">
@@ -2281,10 +2281,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K6" s="5">
         <v>3500</v>
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA6" s="5">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>84</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K7" s="5">
         <v>3000</v>
@@ -2429,13 +2429,13 @@
         <v>0</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="5">
         <v>0.9</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC7" s="5">
         <v>0</v>
@@ -2485,10 +2485,10 @@
         <v>5</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="K8" s="5">
         <v>20000</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC8" s="5">
         <v>0</v>
@@ -2592,10 +2592,10 @@
         <v>10</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="K9" s="4">
         <v>10000</v>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC9" s="4">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="K10" s="4">
         <v>10000</v>
@@ -2745,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AC10" s="4">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>84</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K11" s="5">
         <v>3000</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA11" s="5">
         <v>0.83</v>
@@ -2904,7 +2904,7 @@
         <v>84</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K12" s="5">
         <v>3000</v>
@@ -2948,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA12" s="5">
         <v>1.06</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="AK12" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AL12" s="5"/>
     </row>
@@ -3010,7 +3010,7 @@
         <v>84</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K13" s="5">
         <v>3000</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA13" s="5">
         <v>2</v>
@@ -3113,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K14" s="5">
         <v>3000</v>
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA14" s="5">
         <v>1.8</v>
@@ -3222,7 +3222,7 @@
         <v>84</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K15" s="5">
         <v>3000</v>
@@ -3265,13 +3265,13 @@
         <v>0</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA15" s="5">
         <v>0.85</v>
       </c>
       <c r="AB15" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC15" s="5">
         <v>1.5</v>
@@ -3324,7 +3324,7 @@
         <v>84</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K16" s="5">
         <v>3000</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA16" s="5">
         <v>0.85</v>
@@ -3426,7 +3426,7 @@
         <v>84</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K17" s="5">
         <v>3000</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA17" s="5">
         <v>1</v>
@@ -3528,7 +3528,7 @@
         <v>84</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K18" s="5">
         <v>3000</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA18" s="5">
         <v>1</v>
@@ -3630,7 +3630,7 @@
         <v>84</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="K19" s="5">
         <v>3000</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AA19" s="5">
         <v>1</v>
@@ -3753,7 +3753,7 @@
         <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>98</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
         <v>147</v>
@@ -3775,7 +3775,7 @@
         <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
         <v>149</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -172,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ3" authorId="0">
+    <comment ref="AI3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK3" authorId="0">
+    <comment ref="AJ3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -298,16 +298,13 @@
     <t>IntonateTime</t>
   </si>
   <si>
-    <t>IntonateAnimName</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
-    <t>ActiveAnimName</t>
-  </si>
-  <si>
-    <t>PostRockTime</t>
+    <t>CanSwitchSkillTimePoint</t>
+  </si>
+  <si>
+    <t>CanCancelSkillTimePoint</t>
   </si>
   <si>
     <t>CD</t>
@@ -430,16 +427,13 @@
     <t>施法前摇</t>
   </si>
   <si>
-    <t>前摇动作</t>
-  </si>
-  <si>
     <t>激活状态动画持续的时间</t>
   </si>
   <si>
-    <t>激活动作</t>
-  </si>
-  <si>
-    <t>技能的后摇时间，我这里用作缓冲</t>
+    <t>技能允许变招的时间点</t>
+  </si>
+  <si>
+    <t>技能运行取消的时间点</t>
   </si>
   <si>
     <t>冷却时间</t>
@@ -472,7 +466,7 @@
     <t>大剑1段</t>
   </si>
   <si>
-    <t>剑士的基础招式，无消耗</t>
+    <t>基础招式，无消耗</t>
   </si>
   <si>
     <t>普通攻击</t>
@@ -484,54 +478,72 @@
     <t>扇形</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_default.png</t>
-  </si>
-  <si>
     <t>Effects/Hits/Holy hit.prefab</t>
   </si>
   <si>
-    <t>Attack</t>
-  </si>
-  <si>
     <t>[0.5]</t>
   </si>
   <si>
-    <t>剑刃弑心</t>
-  </si>
-  <si>
-    <t>对单个目标照成物理攻击，添加流血效果</t>
+    <t>大剑2段</t>
+  </si>
+  <si>
+    <t>大剑3段</t>
+  </si>
+  <si>
+    <t>大剑4段</t>
+  </si>
+  <si>
+    <t>圆形</t>
+  </si>
+  <si>
+    <t>[0.3,0.6,0.9]</t>
+  </si>
+  <si>
+    <t>空手1段</t>
+  </si>
+  <si>
+    <t>空手2段</t>
+  </si>
+  <si>
+    <t>空手3段</t>
+  </si>
+  <si>
+    <t>空手4段</t>
+  </si>
+  <si>
+    <t>腿法的极意</t>
+  </si>
+  <si>
+    <t>看腿!!</t>
   </si>
   <si>
     <t>主动技能</t>
   </si>
   <si>
+    <t>Texture/skill_icon/weapon_icon.png</t>
+  </si>
+  <si>
+    <t>摆刺摆勾</t>
+  </si>
+  <si>
+    <t>无知且愚蠢。</t>
+  </si>
+  <si>
+    <t>冲拳</t>
+  </si>
+  <si>
+    <t>冲拳啊小子!</t>
+  </si>
+  <si>
+    <t>木棍戳戳</t>
+  </si>
+  <si>
+    <t>法师的基础法术，无消耗</t>
+  </si>
+  <si>
     <t>单位</t>
   </si>
   <si>
-    <t>SpellA</t>
-  </si>
-  <si>
-    <t>剑荡八荒</t>
-  </si>
-  <si>
-    <t>对自身周围造成范围伤害</t>
-  </si>
-  <si>
-    <t>圆形</t>
-  </si>
-  <si>
-    <t>SpellB</t>
-  </si>
-  <si>
-    <t>[0.3,0.6,0.9]</t>
-  </si>
-  <si>
-    <t>木棍戳戳</t>
-  </si>
-  <si>
-    <t>法师的基础法术，无消耗</t>
-  </si>
-  <si>
     <t>[0.6]</t>
   </si>
   <si>
@@ -541,15 +553,9 @@
     <t>对单体目标造成法术伤害</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_2002.png</t>
-  </si>
-  <si>
     <t>Effects/MagicCircles/Magic circle.prefab</t>
   </si>
   <si>
-    <t>Intonate</t>
-  </si>
-  <si>
     <t>Effects/Fly/FireBall.prefab</t>
   </si>
   <si>
@@ -559,12 +565,6 @@
     <t>提高目标的移动速度和闪避</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_2003.png</t>
-  </si>
-  <si>
-    <t>VictoryStart</t>
-  </si>
-  <si>
     <t>[0]</t>
   </si>
   <si>
@@ -574,18 +574,12 @@
     <t>一段时间内免疫全部伤害</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_2004.png</t>
-  </si>
-  <si>
     <t>右横扫</t>
   </si>
   <si>
     <t>俏皮女枪的专属普通攻击1</t>
   </si>
   <si>
-    <t>attack_01</t>
-  </si>
-  <si>
     <t>[0.3]</t>
   </si>
   <si>
@@ -595,18 +589,12 @@
     <t>俏皮女枪的专属普通攻击2</t>
   </si>
   <si>
-    <t>attack_02</t>
-  </si>
-  <si>
     <t>左右中</t>
   </si>
   <si>
     <t>俏皮女枪的专属普通攻击3</t>
   </si>
   <si>
-    <t>attack_03</t>
-  </si>
-  <si>
     <t>[0.18,0.6,1.2]</t>
   </si>
   <si>
@@ -616,12 +604,6 @@
     <t>长枪的极意</t>
   </si>
   <si>
-    <t>Texture/skill_icon/skill_icon_4004.png</t>
-  </si>
-  <si>
-    <t>SkillG</t>
-  </si>
-  <si>
     <t>[0.38,0.54,0.66,0.81,0.93,1.18]</t>
   </si>
   <si>
@@ -635,9 +617,6 @@
   </si>
   <si>
     <t>野怪通用近战2</t>
-  </si>
-  <si>
-    <t>Attack02</t>
   </si>
   <si>
     <t>[0.29]</t>
@@ -1658,10 +1637,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AK27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <pane xSplit="4" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1688,22 +1669,21 @@
     <col min="23" max="23" width="16.1916666666667" style="5" customWidth="1"/>
     <col min="24" max="24" width="9" style="5"/>
     <col min="25" max="25" width="15.65" style="5" customWidth="1"/>
-    <col min="26" max="26" width="23.475" style="5" customWidth="1"/>
-    <col min="27" max="27" width="24.4333333333333" style="5" customWidth="1"/>
-    <col min="28" max="28" width="22.925" style="5" customWidth="1"/>
-    <col min="29" max="29" width="35.4333333333333" style="5" customWidth="1"/>
-    <col min="30" max="30" width="10.775" style="5" customWidth="1"/>
-    <col min="31" max="31" width="18.075" style="5" customWidth="1"/>
-    <col min="32" max="34" width="35.4333333333333" style="5" customWidth="1"/>
-    <col min="35" max="35" width="14.8583333333333" style="5" customWidth="1"/>
-    <col min="36" max="36" width="24.5666666666667" style="5" customWidth="1"/>
-    <col min="37" max="37" width="32.8166666666667" style="5" customWidth="1"/>
-    <col min="38" max="38" width="31.1833333333333" style="5" customWidth="1"/>
-    <col min="39" max="39" width="40.975" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="5"/>
+    <col min="26" max="26" width="24.4333333333333" style="5" customWidth="1"/>
+    <col min="27" max="27" width="22.925" style="5" customWidth="1"/>
+    <col min="28" max="28" width="18.8" style="5" customWidth="1"/>
+    <col min="29" max="29" width="10.775" style="5" customWidth="1"/>
+    <col min="30" max="30" width="18.075" style="5" customWidth="1"/>
+    <col min="31" max="33" width="35.4333333333333" style="5" customWidth="1"/>
+    <col min="34" max="34" width="14.8583333333333" style="5" customWidth="1"/>
+    <col min="35" max="35" width="24.5666666666667" style="5" customWidth="1"/>
+    <col min="36" max="36" width="32.8166666666667" style="5" customWidth="1"/>
+    <col min="37" max="37" width="31.1833333333333" style="5" customWidth="1"/>
+    <col min="38" max="38" width="40.975" customWidth="1"/>
+    <col min="43" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:38">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1815,243 +1795,234 @@
       <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:37">
+      <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="AF2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AJ2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AK2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:37">
+      <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AL2" s="2" t="s">
-        <v>41</v>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:38">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:37">
+    <row r="4" customHeight="1" spans="1:36">
       <c r="A4" s="5">
         <v>1001</v>
       </c>
@@ -2062,10 +2033,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2077,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K4" s="5">
         <v>3500</v>
@@ -2089,7 +2060,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N4" s="5">
         <v>90</v>
@@ -2097,12 +2068,10 @@
       <c r="P4" s="5">
         <v>3500</v>
       </c>
-      <c r="Q4" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
@@ -2122,38 +2091,35 @@
       <c r="Y4" s="5">
         <v>0</v>
       </c>
-      <c r="Z4" s="5" t="s">
-        <v>85</v>
+      <c r="Z4" s="5">
+        <v>1</v>
       </c>
       <c r="AA4" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>89</v>
+        <v>0.47</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
       </c>
       <c r="AC4" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="AE4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
         <v>0</v>
       </c>
       <c r="AI4" s="5">
         <v>0</v>
       </c>
-      <c r="AJ4" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>90</v>
+      <c r="AJ4" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:37">
+    <row r="5" customHeight="1" spans="1:36">
       <c r="A5" s="5">
         <v>1002</v>
       </c>
@@ -2164,10 +2130,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2179,10 +2145,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K5" s="5">
         <v>3500</v>
@@ -2191,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N5" s="5">
         <v>90</v>
@@ -2199,15 +2165,13 @@
       <c r="P5" s="5">
         <v>3500</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T5" s="5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U5" s="5">
         <v>150</v>
@@ -2224,38 +2188,35 @@
       <c r="Y5" s="5">
         <v>0</v>
       </c>
-      <c r="Z5" s="5" t="s">
-        <v>85</v>
+      <c r="Z5" s="5">
+        <v>1.35</v>
       </c>
       <c r="AA5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>95</v>
+        <v>0.37</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0</v>
       </c>
       <c r="AC5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="5">
         <v>0</v>
       </c>
       <c r="AI5" s="5">
         <v>0</v>
       </c>
-      <c r="AJ5" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="5" t="s">
-        <v>90</v>
+      <c r="AJ5" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:37">
+    <row r="6" customHeight="1" spans="1:36">
       <c r="A6" s="5">
         <v>1003</v>
       </c>
@@ -2266,10 +2227,10 @@
         <v>1003</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2281,10 +2242,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K6" s="5">
         <v>3500</v>
@@ -2293,23 +2254,21 @@
         <v>1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="N6" s="5">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P6" s="5">
         <v>3500</v>
       </c>
-      <c r="Q6" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T6" s="5">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="U6" s="5">
         <v>100</v>
@@ -2326,52 +2285,49 @@
       <c r="Y6" s="5">
         <v>0</v>
       </c>
-      <c r="Z6" s="5" t="s">
-        <v>85</v>
+      <c r="Z6" s="5">
+        <v>1.65</v>
       </c>
       <c r="AA6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>99</v>
+        <v>0.77</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
       </c>
       <c r="AC6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="5">
-        <v>3.5</v>
-      </c>
-      <c r="AE6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="5">
         <v>0</v>
       </c>
       <c r="AI6" s="5">
         <v>0</v>
       </c>
-      <c r="AJ6" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="5" t="s">
-        <v>100</v>
+      <c r="AJ6" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:37">
+    <row r="7" customHeight="1" spans="1:36">
       <c r="A7" s="5">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="B7" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5">
-        <v>2001</v>
+        <v>1004</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -2380,410 +2336,386 @@
         <v>1</v>
       </c>
       <c r="H7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K7" s="5">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L7" s="5">
         <v>1</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="N7" s="7">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="P7" s="5">
-        <v>3000</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T7" s="5">
         <v>0</v>
       </c>
       <c r="U7" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V7" s="5">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W7" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="AA7" s="5">
         <v>1.2</v>
       </c>
-      <c r="X7" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA7" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>89</v>
+      <c r="AB7" s="5">
+        <v>0</v>
       </c>
       <c r="AC7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="5">
         <v>0</v>
       </c>
-      <c r="AE7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="5">
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="5">
         <v>0</v>
       </c>
       <c r="AI7" s="5">
         <v>0</v>
       </c>
-      <c r="AJ7" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>103</v>
+      <c r="AJ7" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:36">
       <c r="A8" s="5">
-        <v>2002</v>
+        <v>1011</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>2002</v>
+        <v>1001</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
       <c r="G8" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="5">
+        <v>3500</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="5">
+        <v>90</v>
+      </c>
+      <c r="P8" s="5">
+        <v>3500</v>
+      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5">
+        <v>0</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>2.55</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:36">
+      <c r="A9" s="5">
+        <v>1012</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1002</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
         <v>5</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="5" t="s">
+      <c r="I9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="5">
+        <v>3500</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9" s="5">
+        <v>90</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3500</v>
+      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0</v>
+      </c>
+      <c r="U9" s="5">
+        <v>150</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>2.55</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:36">
+      <c r="A10" s="5">
+        <v>1013</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1003</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="5">
-        <v>20000</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0</v>
-      </c>
-      <c r="P8" s="5">
-        <v>20000</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="5">
-        <v>35</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
-      <c r="V8" s="5">
-        <v>250</v>
-      </c>
-      <c r="W8" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="X8" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="5" t="s">
+      <c r="E10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>10</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3500</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="5">
+        <v>90</v>
+      </c>
+      <c r="P10" s="5">
+        <v>3500</v>
+      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AC8" s="5">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>5000</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI8" s="5">
-        <v>15000</v>
-      </c>
-      <c r="AJ8" s="5">
-        <v>0</v>
+      <c r="T10" s="5">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5">
+        <v>100</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="5">
+        <v>1.67</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" customHeight="1" spans="1:37">
-      <c r="A9" s="4">
-        <v>2003</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2003</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="4">
-        <v>8</v>
-      </c>
-      <c r="H9" s="4">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="P9" s="4">
-        <v>10000</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="S9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T9" s="4">
-        <v>35</v>
-      </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="4">
-        <v>0</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" s="4" customFormat="1" customHeight="1" spans="1:37">
-      <c r="A10" s="4">
-        <v>2004</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2004</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-      <c r="G10" s="4">
-        <v>8</v>
-      </c>
-      <c r="H10" s="4">
-        <v>10</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="5">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4">
-        <v>10000</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T10" s="4">
-        <v>35</v>
-      </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="4">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>2.4</v>
-      </c>
-      <c r="Z10" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4">
-        <v>10</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" customHeight="1" spans="1:38">
+    <row r="11" ht="15" customHeight="1" spans="1:36">
       <c r="A11" s="5">
-        <v>4001</v>
+        <v>1014</v>
       </c>
       <c r="B11" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C11" s="5">
-        <v>4001</v>
+        <v>1004</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -2792,36 +2724,33 @@
         <v>1</v>
       </c>
       <c r="H11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3500</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="5">
-        <v>3000</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="N11" s="7">
         <v>90</v>
       </c>
-      <c r="O11" s="5"/>
       <c r="P11" s="5">
-        <v>3000</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>87</v>
-      </c>
+        <v>3500</v>
+      </c>
+      <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T11" s="5">
         <v>0</v>
@@ -2833,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X11" s="5">
         <v>0</v>
@@ -2841,55 +2770,49 @@
       <c r="Y11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="5" t="s">
-        <v>85</v>
+      <c r="Z11" s="5">
+        <v>2.35</v>
       </c>
       <c r="AA11" s="5">
-        <v>0.83</v>
-      </c>
-      <c r="AB11" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC11" s="4">
-        <v>0</v>
+        <v>0.84</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>1</v>
       </c>
       <c r="AD11" s="5">
         <v>0</v>
       </c>
-      <c r="AE11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="5"/>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>0</v>
+      </c>
       <c r="AI11" s="5">
         <v>0</v>
       </c>
-      <c r="AJ11" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL11" s="5"/>
+      <c r="AJ11" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="12" customFormat="1" customHeight="1" spans="1:38">
+    <row r="12" ht="15" customHeight="1" spans="1:36">
       <c r="A12" s="5">
-        <v>4002</v>
+        <v>40001</v>
       </c>
       <c r="B12" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>4002</v>
+        <v>1004</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -2898,36 +2821,35 @@
         <v>1</v>
       </c>
       <c r="H12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3500</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="5">
-        <v>3000</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N12" s="5">
-        <v>0</v>
-      </c>
-      <c r="O12" s="5"/>
+      <c r="N12" s="7">
+        <v>90</v>
+      </c>
       <c r="P12" s="5">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T12" s="5">
         <v>0</v>
@@ -2939,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X12" s="5">
         <v>0</v>
@@ -2947,105 +2869,98 @@
       <c r="Y12" s="5">
         <v>0</v>
       </c>
-      <c r="Z12" s="5" t="s">
-        <v>85</v>
+      <c r="Z12" s="5">
+        <v>3.3</v>
       </c>
       <c r="AA12" s="5">
-        <v>1.06</v>
-      </c>
-      <c r="AB12" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC12" s="4">
-        <v>0</v>
+        <v>2.7</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>10</v>
       </c>
       <c r="AD12" s="5">
         <v>0</v>
       </c>
-      <c r="AE12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="5"/>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="5">
+        <v>0</v>
+      </c>
       <c r="AI12" s="5">
         <v>0</v>
       </c>
-      <c r="AJ12" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="5" t="s">
+      <c r="AJ12" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:36">
+      <c r="A13" s="5">
+        <v>40011</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1004</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3500</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N13" s="7">
         <v>90</v>
       </c>
-      <c r="AL12" s="5"/>
-    </row>
-    <row r="13" customFormat="1" customHeight="1" spans="1:38">
-      <c r="A13" s="5">
-        <v>4003</v>
-      </c>
-      <c r="B13" s="5">
-        <v>4</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4003</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5">
-        <v>1</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K13" s="5">
-        <v>3000</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="5">
-        <v>90</v>
-      </c>
-      <c r="O13" s="5"/>
       <c r="P13" s="5">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T13" s="5">
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V13" s="5">
         <v>0</v>
       </c>
       <c r="W13" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X13" s="5">
         <v>0</v>
@@ -3053,55 +2968,49 @@
       <c r="Y13" s="5">
         <v>0</v>
       </c>
-      <c r="Z13" s="5" t="s">
-        <v>85</v>
+      <c r="Z13" s="5">
+        <v>2.9</v>
       </c>
       <c r="AA13" s="5">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC13" s="4">
-        <v>0</v>
+        <v>1.44</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>10</v>
       </c>
       <c r="AD13" s="5">
         <v>0</v>
       </c>
-      <c r="AE13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="5"/>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="5">
+        <v>0</v>
+      </c>
       <c r="AI13" s="5">
         <v>0</v>
       </c>
-      <c r="AJ13" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL13" s="5"/>
+      <c r="AJ13" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="14" customFormat="1" customHeight="1" spans="1:38">
+    <row r="14" ht="15" customHeight="1" spans="1:36">
       <c r="A14" s="5">
-        <v>4004</v>
+        <v>40012</v>
       </c>
       <c r="B14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C14" s="5">
-        <v>4004</v>
+        <v>1004</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -3110,48 +3019,47 @@
         <v>1</v>
       </c>
       <c r="H14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K14" s="5">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="L14" s="5">
         <v>1</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N14" s="5">
+        <v>84</v>
+      </c>
+      <c r="N14" s="7">
         <v>90</v>
       </c>
-      <c r="O14" s="5"/>
       <c r="P14" s="5">
-        <v>3000</v>
+        <v>3500</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T14" s="5">
         <v>0</v>
       </c>
       <c r="U14" s="5">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V14" s="5">
         <v>0</v>
       </c>
       <c r="W14" s="5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="X14" s="5">
         <v>0</v>
@@ -3159,55 +3067,49 @@
       <c r="Y14" s="5">
         <v>0</v>
       </c>
-      <c r="Z14" s="5" t="s">
-        <v>85</v>
+      <c r="Z14" s="5">
+        <v>2.2</v>
       </c>
       <c r="AA14" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC14" s="4">
-        <v>0</v>
+        <v>0.82</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>10</v>
       </c>
       <c r="AD14" s="5">
-        <v>10</v>
-      </c>
-      <c r="AE14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0</v>
+      </c>
       <c r="AI14" s="5">
         <v>0</v>
       </c>
-      <c r="AJ14" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="AL14" s="5"/>
+      <c r="AJ14" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="15" customHeight="1" spans="1:37">
+    <row r="15" customHeight="1" spans="1:36">
       <c r="A15" s="5">
-        <v>10001</v>
+        <v>2001</v>
       </c>
       <c r="B15" s="5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5">
-        <v>10001</v>
+        <v>2001</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -3219,403 +3121,384 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K15" s="5">
         <v>3000</v>
       </c>
       <c r="L15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N15" s="5">
+        <v>84</v>
+      </c>
+      <c r="N15" s="7">
         <v>90</v>
       </c>
       <c r="P15" s="5">
         <v>3000</v>
       </c>
-      <c r="Q15" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T15" s="5">
         <v>0</v>
       </c>
       <c r="U15" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="V15" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W15" s="5">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="X15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="5">
         <v>0</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Z15" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:35">
+      <c r="A16" s="5">
+        <v>2002</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2002</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <v>20000</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="S16" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AA15" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="AB15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC15" s="5">
+      <c r="T16" s="5">
+        <v>35</v>
+      </c>
+      <c r="U16" s="5">
+        <v>0</v>
+      </c>
+      <c r="V16" s="5">
+        <v>250</v>
+      </c>
+      <c r="W16" s="5">
         <v>1.5</v>
       </c>
-      <c r="AD15" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="5" t="s">
-        <v>136</v>
+      <c r="X16" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Z16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>5000</v>
+      </c>
+      <c r="AG16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>15000</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:37">
-      <c r="A16" s="5">
-        <v>10002</v>
-      </c>
-      <c r="B16" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>10002</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>1</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K16" s="5">
-        <v>3000</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" s="5">
+    <row r="17" s="4" customFormat="1" customHeight="1" spans="1:36">
+      <c r="A17" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>8</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P16" s="5">
-        <v>3000</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>50</v>
-      </c>
-      <c r="V16" s="5">
-        <v>0</v>
-      </c>
-      <c r="W16" s="5">
-        <v>1</v>
-      </c>
-      <c r="X16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="5" t="s">
+      <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="P17" s="4">
+        <v>10000</v>
+      </c>
+      <c r="S17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AA16" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="AB16" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AC16" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="AD16" s="5">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="5" t="s">
-        <v>139</v>
+      <c r="T17" s="4">
+        <v>35</v>
+      </c>
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
+        <v>0</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
+        <v>10</v>
+      </c>
+      <c r="AD17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:37">
-      <c r="A17" s="5">
-        <v>30001</v>
-      </c>
-      <c r="B17" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C17" s="5">
-        <v>30001</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>1</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="5">
-        <v>3000</v>
-      </c>
-      <c r="L17" s="5">
-        <v>0</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N17" s="5">
+    <row r="18" s="4" customFormat="1" customHeight="1" spans="1:36">
+      <c r="A18" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2004</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="4">
+        <v>10000</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="P17" s="5">
-        <v>3000</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>100</v>
-      </c>
-      <c r="V17" s="5">
-        <v>0</v>
-      </c>
-      <c r="W17" s="5">
-        <v>1</v>
-      </c>
-      <c r="X17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="5" t="s">
+      <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>10000</v>
+      </c>
+      <c r="S18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AA17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC17" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="5" t="s">
-        <v>142</v>
+      <c r="T18" s="4">
+        <v>35</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <v>0</v>
+      </c>
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:37">
-      <c r="A18" s="5">
-        <v>30002</v>
-      </c>
-      <c r="B18" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C18" s="5">
-        <v>30002</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K18" s="5">
-        <v>3000</v>
-      </c>
-      <c r="L18" s="5">
-        <v>0</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N18" s="5">
-        <v>90</v>
-      </c>
-      <c r="P18" s="5">
-        <v>3000</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>100</v>
-      </c>
-      <c r="V18" s="5">
-        <v>0</v>
-      </c>
-      <c r="W18" s="5">
-        <v>1</v>
-      </c>
-      <c r="X18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC18" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="5">
-        <v>5</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:37">
+    <row r="19" customFormat="1" customHeight="1" spans="1:37">
       <c r="A19" s="5">
-        <v>30003</v>
+        <v>4001</v>
       </c>
       <c r="B19" s="5">
-        <v>1003</v>
+        <v>4</v>
       </c>
       <c r="C19" s="5">
-        <v>30003</v>
+        <v>4001</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -3627,91 +3510,878 @@
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="K19" s="5">
         <v>3000</v>
       </c>
       <c r="L19" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N19" s="5">
         <v>90</v>
       </c>
+      <c r="O19" s="5"/>
       <c r="P19" s="5">
         <v>3000</v>
       </c>
-      <c r="Q19" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="T19" s="5">
         <v>0</v>
       </c>
       <c r="U19" s="5">
+        <v>100</v>
+      </c>
+      <c r="V19" s="5">
+        <v>0</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1</v>
+      </c>
+      <c r="X19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK19" s="5"/>
+    </row>
+    <row r="20" customFormat="1" customHeight="1" spans="1:37">
+      <c r="A20" s="5">
+        <v>4002</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4002</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N20" s="5">
+        <v>0</v>
+      </c>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T20" s="5">
+        <v>0</v>
+      </c>
+      <c r="U20" s="5">
+        <v>100</v>
+      </c>
+      <c r="V20" s="5">
+        <v>0</v>
+      </c>
+      <c r="W20" s="5">
+        <v>1</v>
+      </c>
+      <c r="X20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK20" s="5"/>
+    </row>
+    <row r="21" customFormat="1" customHeight="1" spans="1:37">
+      <c r="A21" s="5">
+        <v>4003</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4003</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="5">
+        <v>90</v>
+      </c>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T21" s="5">
+        <v>0</v>
+      </c>
+      <c r="U21" s="5">
         <v>200</v>
       </c>
-      <c r="V19" s="5">
-        <v>0</v>
-      </c>
-      <c r="W19" s="5">
-        <v>1</v>
-      </c>
-      <c r="X19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="5" t="s">
+      <c r="V21" s="5">
+        <v>0</v>
+      </c>
+      <c r="W21" s="5">
+        <v>1</v>
+      </c>
+      <c r="X21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="5">
+        <v>2</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK21" s="5"/>
+    </row>
+    <row r="22" customFormat="1" customHeight="1" spans="1:37">
+      <c r="A22" s="5">
+        <v>4004</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4004</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N22" s="5">
+        <v>90</v>
+      </c>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AA19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="5" t="s">
+      <c r="T22" s="5">
+        <v>0</v>
+      </c>
+      <c r="U22" s="5">
+        <v>200</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>1</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
+        <v>10</v>
+      </c>
+      <c r="AD22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AC19" s="5">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="5">
+      <c r="AK22" s="5"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:36">
+      <c r="A23" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10001</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="5">
+        <v>90</v>
+      </c>
+      <c r="P23" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T23" s="5">
+        <v>0</v>
+      </c>
+      <c r="U23" s="5">
+        <v>50</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23" s="5">
+        <v>1</v>
+      </c>
+      <c r="X23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:36">
+      <c r="A24" s="5">
+        <v>10002</v>
+      </c>
+      <c r="B24" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10002</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
+        <v>1</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N24" s="5">
+        <v>90</v>
+      </c>
+      <c r="P24" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>50</v>
+      </c>
+      <c r="V24" s="5">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5">
+        <v>1</v>
+      </c>
+      <c r="X24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="5">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:36">
+      <c r="A25" s="5">
+        <v>30001</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C25" s="5">
+        <v>30001</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K25" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L25" s="5">
+        <v>0</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="5">
+        <v>90</v>
+      </c>
+      <c r="P25" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T25" s="5">
+        <v>0</v>
+      </c>
+      <c r="U25" s="5">
+        <v>100</v>
+      </c>
+      <c r="V25" s="5">
+        <v>0</v>
+      </c>
+      <c r="W25" s="5">
+        <v>1</v>
+      </c>
+      <c r="X25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="5">
         <v>5</v>
       </c>
-      <c r="AE19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="5">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="5" t="s">
-        <v>142</v>
+      <c r="AD25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:36">
+      <c r="A26" s="5">
+        <v>30002</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C26" s="5">
+        <v>30002</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K26" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N26" s="5">
+        <v>90</v>
+      </c>
+      <c r="P26" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T26" s="5">
+        <v>0</v>
+      </c>
+      <c r="U26" s="5">
+        <v>100</v>
+      </c>
+      <c r="V26" s="5">
+        <v>0</v>
+      </c>
+      <c r="W26" s="5">
+        <v>1</v>
+      </c>
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:36">
+      <c r="A27" s="5">
+        <v>30003</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1003</v>
+      </c>
+      <c r="C27" s="5">
+        <v>30003</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
+        <v>0</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K27" s="5">
+        <v>3000</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" s="5">
+        <v>90</v>
+      </c>
+      <c r="P27" s="5">
+        <v>3000</v>
+      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T27" s="5">
+        <v>0</v>
+      </c>
+      <c r="U27" s="5">
+        <v>200</v>
+      </c>
+      <c r="V27" s="5">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>1</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>5</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I14 I1:I12 I15:I1048576">
       <formula1>'#数据项'!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13 J14 J1:J12 J15:J1048576">
       <formula1>'#数据项'!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13 M14 M1:M12 M15:M1048576">
       <formula1>'#数据项'!$C:$C</formula1>
     </dataValidation>
   </dataValidations>
@@ -3739,46 +4409,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -331,7 +331,10 @@
     <t>HitDelay</t>
   </si>
   <si>
-    <t>BUFF</t>
+    <t>OnIntonateEndGetBuffs</t>
+  </si>
+  <si>
+    <t>OnActiveEndGetBuffs</t>
   </si>
   <si>
     <t>int</t>
@@ -460,7 +463,7 @@
     <t>命中时间,伤害次数</t>
   </si>
   <si>
-    <t>附加效果，这里面填buffId如流血效果</t>
+    <t>默认buff效果</t>
   </si>
   <si>
     <t>大剑1段</t>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>冲拳啊小子!</t>
+  </si>
+  <si>
+    <t>[5]</t>
   </si>
   <si>
     <t>木棍戳戳</t>
@@ -823,12 +829,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1297,7 +1303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1307,6 +1313,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1637,12 +1646,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK27"/>
+  <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AA17" sqref="AA17"/>
+      <selection pane="topRight" activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1679,11 +1688,11 @@
     <col min="35" max="35" width="24.5666666666667" style="5" customWidth="1"/>
     <col min="36" max="36" width="32.8166666666667" style="5" customWidth="1"/>
     <col min="37" max="37" width="31.1833333333333" style="5" customWidth="1"/>
-    <col min="38" max="38" width="40.975" customWidth="1"/>
+    <col min="38" max="38" width="40.975" style="6" customWidth="1"/>
     <col min="43" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:37">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:38">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1795,231 +1804,240 @@
       <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="AL1" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:37">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:38">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="U2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:37">
+    <row r="3" s="3" customFormat="1" ht="59" customHeight="1" spans="1:38">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="J3" s="7" t="s">
+        <v>53</v>
+      </c>
       <c r="K3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="M3" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N3" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="W3" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="X3" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z3" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="Z3" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="AA3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB3" s="6" t="s">
         <v>70</v>
       </c>
+      <c r="AB3" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="AC3" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>79</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:36">
@@ -2033,10 +2051,10 @@
         <v>1001</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F4" s="5">
         <v>1</v>
@@ -2048,10 +2066,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K4" s="5">
         <v>3500</v>
@@ -2060,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N4" s="5">
         <v>90</v>
@@ -2071,7 +2089,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="S4" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T4" s="5">
         <v>0</v>
@@ -2116,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:36">
@@ -2130,10 +2148,10 @@
         <v>1002</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -2145,10 +2163,10 @@
         <v>5</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" s="5">
         <v>3500</v>
@@ -2157,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N5" s="5">
         <v>90</v>
@@ -2168,7 +2186,7 @@
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T5" s="5">
         <v>0</v>
@@ -2213,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:36">
@@ -2227,10 +2245,10 @@
         <v>1003</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -2242,10 +2260,10 @@
         <v>10</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K6" s="5">
         <v>3500</v>
@@ -2254,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="5">
         <v>90</v>
@@ -2265,7 +2283,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="S6" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T6" s="5">
         <v>0</v>
@@ -2310,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:36">
@@ -2324,10 +2342,10 @@
         <v>1004</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -2339,10 +2357,10 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K7" s="5">
         <v>3500</v>
@@ -2351,9 +2369,9 @@
         <v>1</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N7" s="7">
+        <v>91</v>
+      </c>
+      <c r="N7" s="8">
         <v>0</v>
       </c>
       <c r="P7" s="5">
@@ -2362,7 +2380,7 @@
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
       <c r="S7" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T7" s="5">
         <v>0</v>
@@ -2407,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:36">
@@ -2421,10 +2439,10 @@
         <v>1001</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -2436,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K8" s="5">
         <v>3500</v>
@@ -2448,7 +2466,7 @@
         <v>1</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N8" s="5">
         <v>90</v>
@@ -2459,7 +2477,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T8" s="5">
         <v>0</v>
@@ -2504,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:36">
@@ -2518,10 +2536,10 @@
         <v>1002</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -2533,10 +2551,10 @@
         <v>5</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K9" s="5">
         <v>3500</v>
@@ -2545,7 +2563,7 @@
         <v>1</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N9" s="5">
         <v>90</v>
@@ -2556,7 +2574,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
       <c r="S9" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T9" s="5">
         <v>0</v>
@@ -2601,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:36">
@@ -2615,10 +2633,10 @@
         <v>1003</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -2630,10 +2648,10 @@
         <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" s="5">
         <v>3500</v>
@@ -2642,7 +2660,7 @@
         <v>1</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N10" s="5">
         <v>90</v>
@@ -2653,7 +2671,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
       <c r="S10" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T10" s="5">
         <v>0</v>
@@ -2698,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1" spans="1:36">
@@ -2712,10 +2730,10 @@
         <v>1004</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
@@ -2727,10 +2745,10 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K11" s="5">
         <v>3500</v>
@@ -2739,9 +2757,9 @@
         <v>1</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="7">
+        <v>85</v>
+      </c>
+      <c r="N11" s="8">
         <v>90</v>
       </c>
       <c r="P11" s="5">
@@ -2750,7 +2768,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
       <c r="S11" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T11" s="5">
         <v>0</v>
@@ -2795,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="AJ11" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1" spans="1:36">
@@ -2809,10 +2827,10 @@
         <v>1004</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
@@ -2824,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="5">
         <v>3500</v>
@@ -2836,20 +2854,20 @@
         <v>1</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N12" s="7">
+        <v>85</v>
+      </c>
+      <c r="N12" s="8">
         <v>90</v>
       </c>
       <c r="P12" s="5">
         <v>3500</v>
       </c>
       <c r="Q12" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T12" s="5">
         <v>0</v>
@@ -2894,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1" spans="1:36">
@@ -2908,10 +2926,10 @@
         <v>1004</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -2923,10 +2941,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="5">
         <v>3500</v>
@@ -2935,20 +2953,20 @@
         <v>1</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="7">
+        <v>85</v>
+      </c>
+      <c r="N13" s="8">
         <v>90</v>
       </c>
       <c r="P13" s="5">
         <v>3500</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T13" s="5">
         <v>0</v>
@@ -2993,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="1:36">
+    <row r="14" ht="15" customHeight="1" spans="1:38">
       <c r="A14" s="5">
         <v>40012</v>
       </c>
@@ -3007,10 +3025,10 @@
         <v>1004</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -3022,10 +3040,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" s="5">
         <v>3500</v>
@@ -3034,20 +3052,20 @@
         <v>1</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" s="7">
+        <v>85</v>
+      </c>
+      <c r="N14" s="8">
         <v>90</v>
       </c>
       <c r="P14" s="5">
         <v>3500</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R14" s="4"/>
       <c r="S14" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T14" s="5">
         <v>0</v>
@@ -3092,7 +3110,10 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="AL14" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:36">
@@ -3106,10 +3127,10 @@
         <v>2001</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -3121,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K15" s="5">
         <v>3000</v>
@@ -3133,9 +3154,9 @@
         <v>1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" s="7">
+        <v>85</v>
+      </c>
+      <c r="N15" s="8">
         <v>90</v>
       </c>
       <c r="P15" s="5">
@@ -3144,7 +3165,7 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
       <c r="S15" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T15" s="5">
         <v>0</v>
@@ -3189,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:35">
@@ -3203,10 +3224,10 @@
         <v>2002</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
@@ -3218,10 +3239,10 @@
         <v>5</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K16" s="5">
         <v>20000</v>
@@ -3230,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N16" s="5">
         <v>0</v>
@@ -3239,10 +3260,10 @@
         <v>20000</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T16" s="5">
         <v>35</v>
@@ -3284,7 +3305,7 @@
         <v>5000</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH16" s="5">
         <v>15000</v>
@@ -3304,10 +3325,10 @@
         <v>2003</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -3319,10 +3340,10 @@
         <v>10</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K17" s="4">
         <v>10000</v>
@@ -3331,7 +3352,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N17" s="5">
         <v>0</v>
@@ -3340,7 +3361,7 @@
         <v>10000</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T17" s="4">
         <v>35</v>
@@ -3386,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:36">
@@ -3400,10 +3421,10 @@
         <v>2004</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F18" s="4">
         <v>1</v>
@@ -3415,10 +3436,10 @@
         <v>10</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K18" s="4">
         <v>10000</v>
@@ -3427,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N18" s="5">
         <v>0</v>
@@ -3436,7 +3457,7 @@
         <v>10000</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T18" s="4">
         <v>35</v>
@@ -3481,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="19" customFormat="1" customHeight="1" spans="1:37">
+    <row r="19" customFormat="1" customHeight="1" spans="1:38">
       <c r="A19" s="5">
         <v>4001</v>
       </c>
@@ -3495,10 +3516,10 @@
         <v>4001</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -3510,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="5">
         <v>3000</v>
@@ -3522,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N19" s="5">
         <v>90</v>
@@ -3534,7 +3555,7 @@
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
       <c r="S19" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T19" s="5">
         <v>0</v>
@@ -3581,11 +3602,12 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AK19" s="5"/>
+      <c r="AL19" s="6"/>
     </row>
-    <row r="20" customFormat="1" customHeight="1" spans="1:37">
+    <row r="20" customFormat="1" customHeight="1" spans="1:38">
       <c r="A20" s="5">
         <v>4002</v>
       </c>
@@ -3596,10 +3618,10 @@
         <v>4002</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -3611,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K20" s="5">
         <v>3000</v>
@@ -3623,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N20" s="5">
         <v>0</v>
@@ -3635,7 +3657,7 @@
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T20" s="5">
         <v>0</v>
@@ -3682,11 +3704,12 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AK20" s="5"/>
+      <c r="AL20" s="6"/>
     </row>
-    <row r="21" customFormat="1" customHeight="1" spans="1:37">
+    <row r="21" customFormat="1" customHeight="1" spans="1:38">
       <c r="A21" s="5">
         <v>4003</v>
       </c>
@@ -3697,10 +3720,10 @@
         <v>4003</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -3712,10 +3735,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K21" s="5">
         <v>3000</v>
@@ -3724,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N21" s="5">
         <v>90</v>
@@ -3736,7 +3759,7 @@
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T21" s="5">
         <v>0</v>
@@ -3783,11 +3806,12 @@
         <v>0</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AK21" s="5"/>
+      <c r="AL21" s="6"/>
     </row>
-    <row r="22" customFormat="1" customHeight="1" spans="1:37">
+    <row r="22" customFormat="1" customHeight="1" spans="1:38">
       <c r="A22" s="5">
         <v>4004</v>
       </c>
@@ -3798,10 +3822,10 @@
         <v>4004</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -3813,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K22" s="5">
         <v>3000</v>
@@ -3825,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N22" s="5">
         <v>90</v>
@@ -3837,7 +3861,7 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T22" s="5">
         <v>0</v>
@@ -3884,9 +3908,10 @@
         <v>0</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AK22" s="5"/>
+      <c r="AL22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:36">
       <c r="A23" s="5">
@@ -3899,10 +3924,10 @@
         <v>10001</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
@@ -3914,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K23" s="5">
         <v>3000</v>
@@ -3926,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N23" s="5">
         <v>90</v>
@@ -3937,7 +3962,7 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T23" s="5">
         <v>0</v>
@@ -3982,7 +4007,7 @@
         <v>0</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:36">
@@ -3996,10 +4021,10 @@
         <v>10002</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
@@ -4011,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K24" s="5">
         <v>3000</v>
@@ -4023,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N24" s="5">
         <v>90</v>
@@ -4034,7 +4059,7 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T24" s="5">
         <v>0</v>
@@ -4079,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="1:36">
@@ -4093,10 +4118,10 @@
         <v>30001</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -4108,10 +4133,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K25" s="5">
         <v>3000</v>
@@ -4120,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N25" s="5">
         <v>90</v>
@@ -4131,7 +4156,7 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T25" s="5">
         <v>0</v>
@@ -4176,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:36">
@@ -4190,10 +4215,10 @@
         <v>30002</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -4205,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K26" s="5">
         <v>3000</v>
@@ -4217,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N26" s="5">
         <v>90</v>
@@ -4228,7 +4253,7 @@
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
       <c r="S26" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T26" s="5">
         <v>0</v>
@@ -4273,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:36">
@@ -4287,10 +4312,10 @@
         <v>30003</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -4302,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K27" s="5">
         <v>3000</v>
@@ -4314,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N27" s="5">
         <v>90</v>
@@ -4325,7 +4350,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
       <c r="S27" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T27" s="5">
         <v>0</v>
@@ -4370,18 +4395,18 @@
         <v>0</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13 I14 I1:I12 I15:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>'#数据项'!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J13 J14 J1:J12 J15:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
       <formula1>'#数据项'!$B:$B</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M13 M14 M1:M12 M15:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
       <formula1>'#数据项'!$C:$C</formula1>
     </dataValidation>
   </dataValidations>
@@ -4409,46 +4434,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="SkillDefine" sheetId="1" r:id="rId1"/>
@@ -1303,7 +1303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1313,9 +1313,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1649,9 +1646,9 @@
   <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="AJ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AN20" sqref="AN20"/>
+      <selection pane="topRight" activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -1688,7 +1685,7 @@
     <col min="35" max="35" width="24.5666666666667" style="5" customWidth="1"/>
     <col min="36" max="36" width="32.8166666666667" style="5" customWidth="1"/>
     <col min="37" max="37" width="31.1833333333333" style="5" customWidth="1"/>
-    <col min="38" max="38" width="40.975" style="6" customWidth="1"/>
+    <col min="38" max="38" width="40.975" style="5" customWidth="1"/>
     <col min="43" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -1952,16 +1949,16 @@
       <c r="I3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="6" t="s">
         <v>53</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>56</v>
       </c>
       <c r="N3" s="3" t="s">
@@ -1991,7 +1988,7 @@
       <c r="V3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="6" t="s">
         <v>66</v>
       </c>
       <c r="X3" s="3" t="s">
@@ -2000,13 +1997,13 @@
       <c r="Y3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="6" t="s">
         <v>69</v>
       </c>
       <c r="AA3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="6" t="s">
         <v>71</v>
       </c>
       <c r="AC3" s="3" t="s">
@@ -2030,13 +2027,13 @@
       <c r="AI3" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AL3" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2371,7 +2368,7 @@
       <c r="M7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="5">
@@ -2759,7 +2756,7 @@
       <c r="M11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>90</v>
       </c>
       <c r="P11" s="5">
@@ -2856,7 +2853,7 @@
       <c r="M12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>90</v>
       </c>
       <c r="P12" s="5">
@@ -2955,7 +2952,7 @@
       <c r="M13" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>90</v>
       </c>
       <c r="P13" s="5">
@@ -3054,7 +3051,7 @@
       <c r="M14" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>90</v>
       </c>
       <c r="P14" s="5">
@@ -3112,7 +3109,7 @@
       <c r="AJ14" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AL14" s="6" t="s">
+      <c r="AL14" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3156,7 +3153,7 @@
       <c r="M15" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>90</v>
       </c>
       <c r="P15" s="5">
@@ -3605,7 +3602,7 @@
         <v>121</v>
       </c>
       <c r="AK19" s="5"/>
-      <c r="AL19" s="6"/>
+      <c r="AL19" s="5"/>
     </row>
     <row r="20" customFormat="1" customHeight="1" spans="1:38">
       <c r="A20" s="5">
@@ -3707,7 +3704,7 @@
         <v>87</v>
       </c>
       <c r="AK20" s="5"/>
-      <c r="AL20" s="6"/>
+      <c r="AL20" s="5"/>
     </row>
     <row r="21" customFormat="1" customHeight="1" spans="1:38">
       <c r="A21" s="5">
@@ -3809,7 +3806,7 @@
         <v>126</v>
       </c>
       <c r="AK21" s="5"/>
-      <c r="AL21" s="6"/>
+      <c r="AL21" s="5"/>
     </row>
     <row r="22" customFormat="1" customHeight="1" spans="1:38">
       <c r="A22" s="5">
@@ -3911,7 +3908,7 @@
         <v>129</v>
       </c>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="6"/>
+      <c r="AL22" s="5"/>
     </row>
     <row r="23" customHeight="1" spans="1:36">
       <c r="A23" s="5">
@@ -4109,13 +4106,13 @@
     </row>
     <row r="25" customHeight="1" spans="1:36">
       <c r="A25" s="5">
-        <v>30001</v>
+        <v>1003001</v>
       </c>
       <c r="B25" s="5">
         <v>1003</v>
       </c>
       <c r="C25" s="5">
-        <v>30001</v>
+        <v>1003001</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>135</v>
@@ -4180,7 +4177,7 @@
         <v>1</v>
       </c>
       <c r="AA25" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
@@ -4206,13 +4203,13 @@
     </row>
     <row r="26" customHeight="1" spans="1:36">
       <c r="A26" s="5">
-        <v>30002</v>
+        <v>1003002</v>
       </c>
       <c r="B26" s="5">
         <v>1003</v>
       </c>
       <c r="C26" s="5">
-        <v>30002</v>
+        <v>1003002</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>138</v>
@@ -4277,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="AA26" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
@@ -4303,13 +4300,13 @@
     </row>
     <row r="27" customHeight="1" spans="1:36">
       <c r="A27" s="5">
-        <v>30003</v>
+        <v>1003003</v>
       </c>
       <c r="B27" s="5">
         <v>1003</v>
       </c>
       <c r="C27" s="5">
-        <v>30003</v>
+        <v>1003003</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>140</v>
@@ -4374,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="5">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -829,12 +829,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1646,9 +1646,9 @@
   <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="AB33" sqref="AB33"/>
+      <selection pane="topRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -2867,7 +2867,7 @@
         <v>86</v>
       </c>
       <c r="T12" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="5">
         <v>100</v>
@@ -2966,7 +2966,7 @@
         <v>86</v>
       </c>
       <c r="T13" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U13" s="5">
         <v>100</v>
@@ -3065,7 +3065,7 @@
         <v>86</v>
       </c>
       <c r="T14" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="5">
         <v>100</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="V25" s="5">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="V26" s="5">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="V27" s="5">
         <v>0</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -1646,9 +1646,9 @@
   <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J26" sqref="J26"/>
+      <selection pane="topRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -3068,7 +3068,7 @@
         <v>100</v>
       </c>
       <c r="U14" s="5">
-        <v>100</v>
+        <v>30000</v>
       </c>
       <c r="V14" s="5">
         <v>0</v>

--- a/Tools/excel2json/excel/SkillDefine.xlsx
+++ b/Tools/excel2json/excel/SkillDefine.xlsx
@@ -1646,9 +1646,9 @@
   <dimension ref="A1:AL27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="R1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="S1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="U14" sqref="U14"/>
+      <selection pane="topRight" activeCell="AB30" sqref="AB30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1"/>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="V25" s="5">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>1</v>
       </c>
       <c r="AA25" s="5">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB25" s="5">
         <v>0</v>
       </c>
       <c r="AC25" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD25" s="5">
         <v>0</v>
@@ -4256,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="U26" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="V26" s="5">
         <v>0</v>
@@ -4274,13 +4274,13 @@
         <v>1</v>
       </c>
       <c r="AA26" s="5">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB26" s="5">
         <v>0</v>
       </c>
       <c r="AC26" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD26" s="5">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="V27" s="5">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="AA27" s="5">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB27" s="5">
         <v>0</v>
